--- a/scales.xlsx
+++ b/scales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3438e176fb014ba1/Projecten/Things/PlatformIO/BeeNodeV4_Coordinator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2E728E93-BB36-4886-B8F8-B702364562C4}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{9461CA25-D0AC-499C-B7A1-6FC8523B18E0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="5873" xr2:uid="{FFEAAD56-8228-4A12-AFC0-80046996DCAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Scale1: 272907</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>factor20</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Serial.print((scale1.get_value(10)-8644154)/-22.21496109);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Serial.print("\t\t");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Serial.print((scale2.get_value(10)-8304200)/-22.27629622);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Serial.print((scale3.get_value(10)-8244900)/-22.3391494);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Serial.println();</t>
+  </si>
+  <si>
+    <t>4-5-6</t>
   </si>
 </sst>
 </file>
@@ -94,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +140,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,11 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,9 +180,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,14 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3736D28-2610-4C3E-A51B-274C34CA29E2}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,31 +587,31 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:E11" si="0">C14/10174</f>
         <v>-8.1263023392962452</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>24.425004914487911</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>-23.572832710831531</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>F14/10174</f>
         <v>-22.292117161391783</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>G14/10174</f>
         <v>-22.478867701985454</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f>H14/10174</f>
         <v>-22.525751916650286</v>
       </c>
@@ -591,75 +628,75 @@
         <f t="shared" si="1"/>
         <v>22.013482700505602</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>-23.504609893922872</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>F17/20174</f>
         <v>-22.304153861405769</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" ref="G12:H12" si="2">G17/20174</f>
         <v>-22.378060870427284</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>-22.459254485972043</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>-133377</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>-248200</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>-47148</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>26000</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>-317800</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>-371784</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:E14" si="3">C13-C10</f>
         <v>-82677</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="3"/>
         <v>248500</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="3"/>
         <v>-239830</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f>F13-F10</f>
         <v>-226800</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f>G13-G10</f>
         <v>-228700</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f>H13-H10</f>
         <v>-229177</v>
       </c>
@@ -687,62 +724,62 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-78595</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>-52600</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>-281500</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>-197164</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>-540555</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>-595700</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" ref="C17:E17" si="4">C16-C10</f>
         <v>-27895</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="4"/>
         <v>444100</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <f t="shared" si="4"/>
         <v>-474182</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f>F16-F10</f>
         <v>-449964</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f>G16-G10</f>
         <v>-451455</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f>H16-H10</f>
         <v>-453093</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D18">
         <f>D17/D12</f>
         <v>20174</v>
@@ -760,15 +797,260 @@
         <v>20174</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H21">
-        <v>-1039601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F19" s="9">
+        <v>8641240</v>
+      </c>
+      <c r="G19" s="9">
+        <v>8304320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <v>8644154</v>
+      </c>
+      <c r="G20">
+        <v>8304072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>8644154</v>
+      </c>
+      <c r="G21">
+        <v>8304072</v>
+      </c>
+      <c r="H21" s="9">
+        <v>8244640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>8418870</v>
+      </c>
+      <c r="G22">
+        <v>8078600</v>
+      </c>
       <c r="H22">
-        <f>(H21-H10)/H12</f>
-        <v>39938.725506684059</v>
+        <v>8017860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="10">
+        <v>8195989.375</v>
+      </c>
+      <c r="G23">
+        <v>7854670</v>
+      </c>
+      <c r="H23">
+        <v>7793970</v>
+      </c>
+      <c r="J23">
+        <v>7793673.7999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:E25" si="5">C22-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>F22-F21</f>
+        <v>-225284</v>
+      </c>
+      <c r="G25">
+        <f>G22-G21</f>
+        <v>-225472</v>
+      </c>
+      <c r="H25">
+        <f>H22-H21</f>
+        <v>-226780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="6">C23-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>F23-F21</f>
+        <v>-448164.625</v>
+      </c>
+      <c r="G26">
+        <f>G23-G21</f>
+        <v>-449402</v>
+      </c>
+      <c r="H26">
+        <f>H23-H21</f>
+        <v>-450670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:E28" si="7">C25/10174</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>F25/10174</f>
+        <v>-22.143109887949677</v>
+      </c>
+      <c r="G28">
+        <f>G25/10174</f>
+        <v>-22.16158836249263</v>
+      </c>
+      <c r="H28">
+        <f>H25/10174</f>
+        <v>-22.29015136622764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:E29" si="8">C26/20174</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>F26/20174</f>
+        <v>-22.21496108852979</v>
+      </c>
+      <c r="G29">
+        <f>G26/20174</f>
+        <v>-22.276296222861109</v>
+      </c>
+      <c r="H29">
+        <f>H26/20174</f>
+        <v>-22.339149400218101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>8608608</v>
+      </c>
+      <c r="G32">
+        <v>8627108</v>
+      </c>
+      <c r="H32">
+        <v>7735961</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C33" t="e">
+        <f t="shared" ref="C33:E33" si="9">C32/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33">
+        <f>(F32-F21)/F29</f>
+        <v>1600.092831958792</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:H33" si="10">(G32-G21)/G29</f>
+        <v>-14501.333469810992</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>22770.74166463266</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="H34">
+        <f>H33-174</f>
+        <v>22596.74166463266</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="L40" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -777,5 +1059,6 @@
     <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scales.xlsx
+++ b/scales.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3438e176fb014ba1/Projecten/Things/PlatformIO/BeeNodeV4_Coordinator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{9461CA25-D0AC-499C-B7A1-6FC8523B18E0}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E98DDA60-9A24-4658-BE3E-298D33B3112F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="5873" xr2:uid="{FFEAAD56-8228-4A12-AFC0-80046996DCAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
   <si>
     <t>Scale1: 272907</t>
   </si>
@@ -93,6 +94,480 @@
   </si>
   <si>
     <t>4-5-6</t>
+  </si>
+  <si>
+    <t>Scale1: 8641643</t>
+  </si>
+  <si>
+    <t>Scale2: 8388571</t>
+  </si>
+  <si>
+    <t>Scale3: 8384484</t>
+  </si>
+  <si>
+    <t>Scale1: 8641114</t>
+  </si>
+  <si>
+    <t>Scale2: 8387889</t>
+  </si>
+  <si>
+    <t>Scale3: 8382335</t>
+  </si>
+  <si>
+    <t>readings</t>
+  </si>
+  <si>
+    <t>8641008.00</t>
+  </si>
+  <si>
+    <t>8300825.00</t>
+  </si>
+  <si>
+    <t>8382390.00</t>
+  </si>
+  <si>
+    <t>142.56</t>
+  </si>
+  <si>
+    <t>152.31</t>
+  </si>
+  <si>
+    <t>44.09</t>
+  </si>
+  <si>
+    <t>8640987.00</t>
+  </si>
+  <si>
+    <t>8300800.00</t>
+  </si>
+  <si>
+    <t>8382424.00</t>
+  </si>
+  <si>
+    <t>143.73</t>
+  </si>
+  <si>
+    <t>44.63</t>
+  </si>
+  <si>
+    <t>8640979.00</t>
+  </si>
+  <si>
+    <t>8301173.00</t>
+  </si>
+  <si>
+    <t>8382383.00</t>
+  </si>
+  <si>
+    <t>141.75</t>
+  </si>
+  <si>
+    <t>152.36</t>
+  </si>
+  <si>
+    <t>47.90</t>
+  </si>
+  <si>
+    <t>8640966.00</t>
+  </si>
+  <si>
+    <t>8300828.00</t>
+  </si>
+  <si>
+    <t>8382222.00</t>
+  </si>
+  <si>
+    <t>151.33</t>
+  </si>
+  <si>
+    <t>48.39</t>
+  </si>
+  <si>
+    <t>8640981.00</t>
+  </si>
+  <si>
+    <t>8300812.00</t>
+  </si>
+  <si>
+    <t>8382332.00</t>
+  </si>
+  <si>
+    <t>142.25</t>
+  </si>
+  <si>
+    <t>151.06</t>
+  </si>
+  <si>
+    <t>47.23</t>
+  </si>
+  <si>
+    <t>8640967.00</t>
+  </si>
+  <si>
+    <t>8300807.00</t>
+  </si>
+  <si>
+    <t>8382439.00</t>
+  </si>
+  <si>
+    <t>142.61</t>
+  </si>
+  <si>
+    <t>152.05</t>
+  </si>
+  <si>
+    <t>46.47</t>
+  </si>
+  <si>
+    <t>8640985.00</t>
+  </si>
+  <si>
+    <t>8300775.00</t>
+  </si>
+  <si>
+    <t>8382418.00</t>
+  </si>
+  <si>
+    <t>151.87</t>
+  </si>
+  <si>
+    <t>48.57</t>
+  </si>
+  <si>
+    <t>8640988.00</t>
+  </si>
+  <si>
+    <t>8382404.00</t>
+  </si>
+  <si>
+    <t>136.26</t>
+  </si>
+  <si>
+    <t>150.29</t>
+  </si>
+  <si>
+    <t>-211.38</t>
+  </si>
+  <si>
+    <t>8640921.00</t>
+  </si>
+  <si>
+    <t>8300789.00</t>
+  </si>
+  <si>
+    <t>8388498.00</t>
+  </si>
+  <si>
+    <t>140.22</t>
+  </si>
+  <si>
+    <t>151.15</t>
+  </si>
+  <si>
+    <t>-214.11</t>
+  </si>
+  <si>
+    <t>8641022.00</t>
+  </si>
+  <si>
+    <t>8300784.00</t>
+  </si>
+  <si>
+    <t>8388211.00</t>
+  </si>
+  <si>
+    <t>140.58</t>
+  </si>
+  <si>
+    <t>150.65</t>
+  </si>
+  <si>
+    <t>-218.85</t>
+  </si>
+  <si>
+    <t>8640977.00</t>
+  </si>
+  <si>
+    <t>8300883.00</t>
+  </si>
+  <si>
+    <t>8388499.00</t>
+  </si>
+  <si>
+    <t>143.91</t>
+  </si>
+  <si>
+    <t>151.51</t>
+  </si>
+  <si>
+    <t>-22.07</t>
+  </si>
+  <si>
+    <t>8640997.00</t>
+  </si>
+  <si>
+    <t>8300856.00</t>
+  </si>
+  <si>
+    <t>8382386.00</t>
+  </si>
+  <si>
+    <t>147.33</t>
+  </si>
+  <si>
+    <t>46.29</t>
+  </si>
+  <si>
+    <t>8300877.00</t>
+  </si>
+  <si>
+    <t>8382368.00</t>
+  </si>
+  <si>
+    <t>144.72</t>
+  </si>
+  <si>
+    <t>148.86</t>
+  </si>
+  <si>
+    <t>48.97</t>
+  </si>
+  <si>
+    <t>8640965.00</t>
+  </si>
+  <si>
+    <t>8300853.00</t>
+  </si>
+  <si>
+    <t>143.10</t>
+  </si>
+  <si>
+    <t>149.89</t>
+  </si>
+  <si>
+    <t>49.60</t>
+  </si>
+  <si>
+    <t>8640954.00</t>
+  </si>
+  <si>
+    <t>8300865.00</t>
+  </si>
+  <si>
+    <t>8382288.00</t>
+  </si>
+  <si>
+    <t>142.34</t>
+  </si>
+  <si>
+    <t>154.56</t>
+  </si>
+  <si>
+    <t>54.79</t>
+  </si>
+  <si>
+    <t>8641189.00</t>
+  </si>
+  <si>
+    <t>8300795.00</t>
+  </si>
+  <si>
+    <t>8388068.00</t>
+  </si>
+  <si>
+    <t>135.85</t>
+  </si>
+  <si>
+    <t>154.83</t>
+  </si>
+  <si>
+    <t>2675.48</t>
+  </si>
+  <si>
+    <t>8641208.00</t>
+  </si>
+  <si>
+    <t>8300791.00</t>
+  </si>
+  <si>
+    <t>8319492.00</t>
+  </si>
+  <si>
+    <t>130.95</t>
+  </si>
+  <si>
+    <t>154.20</t>
+  </si>
+  <si>
+    <t>2863.94</t>
+  </si>
+  <si>
+    <t>8300745.00</t>
+  </si>
+  <si>
+    <t>8319459.00</t>
+  </si>
+  <si>
+    <t>135.18</t>
+  </si>
+  <si>
+    <t>2862.28</t>
+  </si>
+  <si>
+    <t>8641148.00</t>
+  </si>
+  <si>
+    <t>8307438.00</t>
+  </si>
+  <si>
+    <t>8382697.00</t>
+  </si>
+  <si>
+    <t>132.70</t>
+  </si>
+  <si>
+    <t>151.60</t>
+  </si>
+  <si>
+    <t>53.22</t>
+  </si>
+  <si>
+    <t>8641305.00</t>
+  </si>
+  <si>
+    <t>8300760.00</t>
+  </si>
+  <si>
+    <t>8382974.00</t>
+  </si>
+  <si>
+    <t>141.39</t>
+  </si>
+  <si>
+    <t>147.51</t>
+  </si>
+  <si>
+    <t>51.43</t>
+  </si>
+  <si>
+    <t>8300924.00</t>
+  </si>
+  <si>
+    <t>8382260.00</t>
+  </si>
+  <si>
+    <t>146.34</t>
+  </si>
+  <si>
+    <t>146.70</t>
+  </si>
+  <si>
+    <t>49.02</t>
+  </si>
+  <si>
+    <t>8640931.00</t>
+  </si>
+  <si>
+    <t>8300955.00</t>
+  </si>
+  <si>
+    <t>8382251.00</t>
+  </si>
+  <si>
+    <t>152.33</t>
+  </si>
+  <si>
+    <t>145.58</t>
+  </si>
+  <si>
+    <t>52.96</t>
+  </si>
+  <si>
+    <t>8640792.00</t>
+  </si>
+  <si>
+    <t>8300996.00</t>
+  </si>
+  <si>
+    <t>8382364.00</t>
+  </si>
+  <si>
+    <t>151.97</t>
+  </si>
+  <si>
+    <t>143.16</t>
+  </si>
+  <si>
+    <t>53.58</t>
+  </si>
+  <si>
+    <t>8640786.00</t>
+  </si>
+  <si>
+    <t>8300930.00</t>
+  </si>
+  <si>
+    <t>8382371.00</t>
+  </si>
+  <si>
+    <t>151.20</t>
+  </si>
+  <si>
+    <t>140.87</t>
+  </si>
+  <si>
+    <t>49.64</t>
+  </si>
+  <si>
+    <t>Bat: 4347</t>
+  </si>
+  <si>
+    <t>Scale1: 8630212</t>
+  </si>
+  <si>
+    <t>Scale2: 8302607</t>
+  </si>
+  <si>
+    <t>Scale3: 8386164</t>
+  </si>
+  <si>
+    <t>Scale4: 8388607</t>
+  </si>
+  <si>
+    <t>Scale5: 8388607</t>
+  </si>
+  <si>
+    <t>Scale6: 8388607</t>
+  </si>
+  <si>
+    <t>Scale1: 8643933</t>
+  </si>
+  <si>
+    <t>Scale2: 8303315</t>
+  </si>
+  <si>
+    <t>Scale3: 8381375</t>
+  </si>
+  <si>
+    <t>Scale1: 8644032</t>
+  </si>
+  <si>
+    <t>Scale2: 8303166</t>
+  </si>
+  <si>
+    <t>Scale3: 8381354</t>
+  </si>
+  <si>
+    <t>Scale4: 8644146</t>
+  </si>
+  <si>
+    <t>Scale5: 8303392</t>
+  </si>
+  <si>
+    <t>Scale6: 8381409</t>
+  </si>
+  <si>
+    <t>calibration</t>
   </si>
 </sst>
 </file>
@@ -115,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +627,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -180,12 +661,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -500,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3736D28-2610-4C3E-A51B-274C34CA29E2}">
-  <dimension ref="A2:L40"/>
+  <dimension ref="A2:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -646,7 +1129,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -672,7 +1155,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -724,7 +1207,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -750,7 +1233,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -798,39 +1281,53 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F19" s="9">
-        <v>8641240</v>
-      </c>
-      <c r="G19" s="9">
-        <v>8304320</v>
-      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F20">
-        <v>8644154</v>
-      </c>
-      <c r="G20">
-        <v>8304072</v>
-      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="C21" s="8">
+        <v>7744439</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7880947.25</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8579945.375</v>
+      </c>
+      <c r="F21" s="8">
         <v>8644154</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>8304072</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>8244640</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
       <c r="B22">
         <v>10</v>
       </c>
+      <c r="C22">
+        <v>7953200</v>
+      </c>
+      <c r="D22">
+        <v>8098756</v>
+      </c>
+      <c r="E22">
+        <v>8340344</v>
+      </c>
       <c r="F22">
         <v>8418870</v>
       </c>
@@ -842,11 +1339,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="F23" s="10">
-        <v>8195989.375</v>
+      <c r="C23">
+        <v>8158465</v>
+      </c>
+      <c r="D23">
+        <v>8318247</v>
+      </c>
+      <c r="E23">
+        <v>8105431</v>
+      </c>
+      <c r="F23" s="9">
+        <v>8195989</v>
       </c>
       <c r="G23">
         <v>7854670</v>
@@ -859,20 +1366,23 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25">
         <f t="shared" ref="C25:E25" si="5">C22-C21</f>
-        <v>0</v>
+        <v>208761</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>217808.75</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-239601.375</v>
       </c>
       <c r="F25">
         <f>F22-F21</f>
@@ -888,24 +1398,25 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="11"/>
       <c r="B26">
         <v>20</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:E26" si="6">C23-C21</f>
-        <v>0</v>
+        <v>414026</v>
       </c>
       <c r="D26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>437299.75</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-474514.375</v>
       </c>
       <c r="F26">
         <f>F23-F21</f>
-        <v>-448164.625</v>
+        <v>-448165</v>
       </c>
       <c r="G26">
         <f>G23-G21</f>
@@ -917,20 +1428,23 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:E28" si="7">C25/10174</f>
-        <v>0</v>
+        <v>20.519068213092197</v>
       </c>
       <c r="D28">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.408369372911341</v>
       </c>
       <c r="E28">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-23.550361214861411</v>
       </c>
       <c r="F28">
         <f>F25/10174</f>
@@ -946,30 +1460,31 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B29">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12">
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
         <f t="shared" ref="C29:E29" si="8">C26/20174</f>
-        <v>0</v>
-      </c>
-      <c r="D29">
+        <v>20.522752057103201</v>
+      </c>
+      <c r="D29" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E29">
+        <v>21.676402795677603</v>
+      </c>
+      <c r="E29" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
+        <v>-23.521085307821949</v>
+      </c>
+      <c r="F29" s="12">
         <f>F26/20174</f>
-        <v>-22.21496108852979</v>
-      </c>
-      <c r="G29">
+        <v>-22.214979676811737</v>
+      </c>
+      <c r="G29" s="12">
         <f>G26/20174</f>
         <v>-22.276296222861109</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="12">
         <f>H26/20174</f>
         <v>-22.339149400218101</v>
       </c>
@@ -988,22 +1503,22 @@
         <v>7735961</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C33" t="e">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="C33">
         <f t="shared" ref="C33:E33" si="9">C32/C29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" t="e">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" t="e">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f>(F32-F21)/F29</f>
-        <v>1600.092831958792</v>
+        <v>1600.091493088483</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:H33" si="10">(G32-G21)/G29</f>
@@ -1014,51 +1529,1022 @@
         <v>22770.74166463266</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.45">
       <c r="H34">
         <f>H33-174</f>
         <v>22596.74166463266</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="R37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="R38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="R39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.45">
       <c r="L40" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>169</v>
+      </c>
+      <c r="R42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" t="s">
+        <v>170</v>
+      </c>
+      <c r="R43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>171</v>
+      </c>
+      <c r="R44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="L48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L52" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L53" t="s">
+        <v>45</v>
+      </c>
+      <c r="M53" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L54" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" t="s">
+        <v>48</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L56" t="s">
+        <v>53</v>
+      </c>
+      <c r="N56" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L57" t="s">
+        <v>56</v>
+      </c>
+      <c r="M57" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L60" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L62" t="s">
+        <v>69</v>
+      </c>
+      <c r="N62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L63" t="s">
+        <v>72</v>
+      </c>
+      <c r="M63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="N64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L66" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L67" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" t="s">
+        <v>85</v>
+      </c>
+      <c r="N67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L68" t="s">
+        <v>87</v>
+      </c>
+      <c r="N68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69" t="s">
+        <v>91</v>
+      </c>
+      <c r="N69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L71" t="s">
+        <v>56</v>
+      </c>
+      <c r="M71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L72" t="s">
+        <v>97</v>
+      </c>
+      <c r="N72" t="s">
+        <v>98</v>
+      </c>
+      <c r="P72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L73" t="s">
+        <v>100</v>
+      </c>
+      <c r="M73" t="s">
+        <v>101</v>
+      </c>
+      <c r="N73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L74" t="s">
+        <v>102</v>
+      </c>
+      <c r="N74" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L75" t="s">
+        <v>105</v>
+      </c>
+      <c r="M75" t="s">
+        <v>106</v>
+      </c>
+      <c r="N75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L76" t="s">
+        <v>108</v>
+      </c>
+      <c r="N76" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L77" t="s">
+        <v>111</v>
+      </c>
+      <c r="M77" t="s">
+        <v>112</v>
+      </c>
+      <c r="N77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L78" t="s">
+        <v>114</v>
+      </c>
+      <c r="N78" t="s">
+        <v>115</v>
+      </c>
+      <c r="P78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L79" t="s">
+        <v>117</v>
+      </c>
+      <c r="M79" t="s">
+        <v>118</v>
+      </c>
+      <c r="N79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L80" t="s">
+        <v>120</v>
+      </c>
+      <c r="N80" t="s">
+        <v>121</v>
+      </c>
+      <c r="P80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L81" t="s">
+        <v>117</v>
+      </c>
+      <c r="M81" t="s">
+        <v>123</v>
+      </c>
+      <c r="N81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L82" t="s">
+        <v>125</v>
+      </c>
+      <c r="N82" t="s">
+        <v>115</v>
+      </c>
+      <c r="P82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L83" t="s">
+        <v>127</v>
+      </c>
+      <c r="M83" t="s">
+        <v>128</v>
+      </c>
+      <c r="N83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L84" t="s">
+        <v>130</v>
+      </c>
+      <c r="N84" t="s">
+        <v>131</v>
+      </c>
+      <c r="P84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L85" t="s">
+        <v>133</v>
+      </c>
+      <c r="M85" t="s">
+        <v>134</v>
+      </c>
+      <c r="N85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L86" t="s">
+        <v>136</v>
+      </c>
+      <c r="N86" t="s">
+        <v>137</v>
+      </c>
+      <c r="P86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L87" t="s">
+        <v>28</v>
+      </c>
+      <c r="M87" t="s">
+        <v>139</v>
+      </c>
+      <c r="N87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L88" t="s">
+        <v>141</v>
+      </c>
+      <c r="N88" t="s">
+        <v>142</v>
+      </c>
+      <c r="P88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L89" t="s">
+        <v>144</v>
+      </c>
+      <c r="M89" t="s">
+        <v>145</v>
+      </c>
+      <c r="N89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L90" t="s">
+        <v>147</v>
+      </c>
+      <c r="N90" t="s">
+        <v>148</v>
+      </c>
+      <c r="P90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L91" t="s">
+        <v>150</v>
+      </c>
+      <c r="M91" t="s">
+        <v>151</v>
+      </c>
+      <c r="N91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L92" t="s">
+        <v>153</v>
+      </c>
+      <c r="N92" t="s">
+        <v>154</v>
+      </c>
+      <c r="P92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L93" t="s">
+        <v>156</v>
+      </c>
+      <c r="M93" t="s">
+        <v>157</v>
+      </c>
+      <c r="N93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L94" t="s">
+        <v>159</v>
+      </c>
+      <c r="N94" t="s">
+        <v>160</v>
+      </c>
+      <c r="P94" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA755F78-AD19-4B85-98D6-34EC2774BA2D}">
+  <dimension ref="C8:N28"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>8338936</v>
+      </c>
+      <c r="D8">
+        <v>8183270</v>
+      </c>
+      <c r="E8">
+        <v>8384497</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>8338930</v>
+      </c>
+      <c r="D9">
+        <v>8183256</v>
+      </c>
+      <c r="E9">
+        <v>8384475</v>
+      </c>
+      <c r="H9">
+        <v>338934</v>
+      </c>
+      <c r="I9">
+        <v>8385299</v>
+      </c>
+      <c r="J9">
+        <v>8650722</v>
+      </c>
+      <c r="L9">
+        <v>8339430</v>
+      </c>
+      <c r="M9">
+        <v>8363815</v>
+      </c>
+      <c r="N9">
+        <v>8650716</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>8338931</v>
+      </c>
+      <c r="D10">
+        <v>8183285</v>
+      </c>
+      <c r="E10">
+        <v>8384470</v>
+      </c>
+      <c r="H10">
+        <v>8338927</v>
+      </c>
+      <c r="I10">
+        <v>8385413</v>
+      </c>
+      <c r="J10">
+        <v>8650722</v>
+      </c>
+      <c r="L10">
+        <v>8339310</v>
+      </c>
+      <c r="M10">
+        <v>8363714</v>
+      </c>
+      <c r="N10">
+        <v>8650714</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>8338959</v>
+      </c>
+      <c r="D11">
+        <v>8183246</v>
+      </c>
+      <c r="E11">
+        <v>8384465</v>
+      </c>
+      <c r="H11">
+        <v>8338923</v>
+      </c>
+      <c r="I11">
+        <v>8385409</v>
+      </c>
+      <c r="J11">
+        <v>8650705</v>
+      </c>
+      <c r="L11">
+        <v>8339178</v>
+      </c>
+      <c r="M11">
+        <v>8363675</v>
+      </c>
+      <c r="N11">
+        <v>8650523</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>8338917</v>
+      </c>
+      <c r="D12">
+        <v>8183276</v>
+      </c>
+      <c r="E12">
+        <v>8384477</v>
+      </c>
+      <c r="H12">
+        <v>8338920</v>
+      </c>
+      <c r="I12">
+        <v>8385376</v>
+      </c>
+      <c r="J12">
+        <v>8650722</v>
+      </c>
+      <c r="L12">
+        <v>8339047</v>
+      </c>
+      <c r="M12">
+        <v>8363770</v>
+      </c>
+      <c r="N12">
+        <v>8650733</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>8338920</v>
+      </c>
+      <c r="D13">
+        <v>8183281</v>
+      </c>
+      <c r="E13">
+        <v>8384455</v>
+      </c>
+      <c r="H13">
+        <v>8338927</v>
+      </c>
+      <c r="I13">
+        <v>8385391</v>
+      </c>
+      <c r="J13">
+        <v>8650718</v>
+      </c>
+      <c r="L13">
+        <v>8339095</v>
+      </c>
+      <c r="M13">
+        <v>8363824</v>
+      </c>
+      <c r="N13">
+        <v>8644166</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>8338916</v>
+      </c>
+      <c r="D14">
+        <v>8183278</v>
+      </c>
+      <c r="E14">
+        <v>8384477</v>
+      </c>
+      <c r="H14">
+        <v>8338925</v>
+      </c>
+      <c r="I14">
+        <v>8384997</v>
+      </c>
+      <c r="J14">
+        <v>8650726</v>
+      </c>
+      <c r="L14">
+        <v>8339116</v>
+      </c>
+      <c r="M14">
+        <v>8363929</v>
+      </c>
+      <c r="N14">
+        <v>8650703</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <f>AVERAGE(C8:C14)</f>
+        <v>8338929.8571428573</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D8:D14)</f>
+        <v>8183270.2857142854</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(E8:E14)</f>
+        <v>8384473.7142857146</v>
+      </c>
+      <c r="H15">
+        <v>8338910</v>
+      </c>
+      <c r="I15">
+        <v>8385449</v>
+      </c>
+      <c r="J15">
+        <v>8650719</v>
+      </c>
+      <c r="L15">
+        <v>8339129</v>
+      </c>
+      <c r="M15">
+        <v>8363902</v>
+      </c>
+      <c r="N15">
+        <v>8650722</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>8338929</v>
+      </c>
+      <c r="I16">
+        <v>8385422</v>
+      </c>
+      <c r="J16">
+        <v>8650721</v>
+      </c>
+      <c r="L16">
+        <v>8332488</v>
+      </c>
+      <c r="M16">
+        <v>8363974</v>
+      </c>
+      <c r="N16">
+        <v>8650715</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>8338902</v>
+      </c>
+      <c r="I17">
+        <v>8385378</v>
+      </c>
+      <c r="J17">
+        <v>8650730</v>
+      </c>
+      <c r="L17">
+        <v>8339125</v>
+      </c>
+      <c r="M17">
+        <v>8363998</v>
+      </c>
+      <c r="N17">
+        <v>8650728</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>8338916</v>
+      </c>
+      <c r="I18">
+        <v>8385434</v>
+      </c>
+      <c r="J18">
+        <v>8650718</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(L9:L17)</f>
+        <v>8338435.333333333</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGE(M9:M17)</f>
+        <v>8363844.555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>8338912</v>
+      </c>
+      <c r="I19">
+        <v>8385432</v>
+      </c>
+      <c r="J19">
+        <v>8650714</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>8338926</v>
+      </c>
+      <c r="I20">
+        <v>8385418</v>
+      </c>
+      <c r="J20">
+        <v>8650730</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="H21">
+        <v>8338925</v>
+      </c>
+      <c r="I21">
+        <v>8385486</v>
+      </c>
+      <c r="J21">
+        <v>8650724</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <v>8257313</v>
+      </c>
+      <c r="J25">
+        <v>8116570</v>
+      </c>
+      <c r="K25">
+        <v>8649352</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <v>8257402</v>
+      </c>
+      <c r="J26">
+        <v>8142816</v>
+      </c>
+      <c r="K26">
+        <v>8650338</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <v>8257434</v>
+      </c>
+      <c r="J27">
+        <v>8142827</v>
+      </c>
+      <c r="K27">
+        <v>8650346</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <f>AVERAGE(I25:I27)</f>
+        <v>8257383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scales.xlsx
+++ b/scales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3438e176fb014ba1/Projecten/Things/PlatformIO/BeeNodeV4_Coordinator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E98DDA60-9A24-4658-BE3E-298D33B3112F}"/>
+  <xr:revisionPtr revIDLastSave="736" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{EA80FC38-7E9B-4D18-A04F-5863084AB10E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="5873" xr2:uid="{FFEAAD56-8228-4A12-AFC0-80046996DCAE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="180">
   <si>
     <t>Scale1: 272907</t>
   </si>
@@ -568,13 +568,16 @@
   </si>
   <si>
     <t>calibration</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,8 +592,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,8 +673,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -642,11 +700,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -661,14 +822,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -983,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3736D28-2610-4C3E-A51B-274C34CA29E2}">
-  <dimension ref="A2:R94"/>
+  <dimension ref="A2:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -995,7 +1189,7 @@
     <col min="7" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>1</v>
       </c>
@@ -1047,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1264,7 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1098,8 +1292,26 @@
         <f>H14/10174</f>
         <v>-22.525751916650286</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1127,8 +1339,29 @@
         <f t="shared" si="2"/>
         <v>-22.459254485972043</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="U12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <v>-50700</v>
+      </c>
+      <c r="W12">
+        <v>-496700</v>
+      </c>
+      <c r="X12">
+        <v>192682</v>
+      </c>
+      <c r="Y12">
+        <v>252800</v>
+      </c>
+      <c r="Z12">
+        <v>-89100</v>
+      </c>
+      <c r="AA12">
+        <v>-142607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1153,8 +1386,29 @@
       <c r="H13" s="2">
         <v>-371784</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="U13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>-8.1263023392962452</v>
+      </c>
+      <c r="W13">
+        <v>24.425004914487911</v>
+      </c>
+      <c r="X13">
+        <v>-23.572832710831531</v>
+      </c>
+      <c r="Y13">
+        <v>-22.292117161391783</v>
+      </c>
+      <c r="Z13">
+        <v>-22.478867701985454</v>
+      </c>
+      <c r="AA13">
+        <v>-22.525751916650286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1183,8 +1437,42 @@
         <f>H13-H10</f>
         <v>-229177</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <v>395</v>
+      </c>
+      <c r="K14">
+        <v>2626</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="4">SUM(J14:L14)</f>
+        <v>3021</v>
+      </c>
+      <c r="P14">
+        <v>1315</v>
+      </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>-1.3827203331020126</v>
+      </c>
+      <c r="W14">
+        <v>22.013482700505602</v>
+      </c>
+      <c r="X14">
+        <v>-23.504609893922872</v>
+      </c>
+      <c r="Y14">
+        <v>-22.304153861405769</v>
+      </c>
+      <c r="Z14">
+        <v>-22.378060870427284</v>
+      </c>
+      <c r="AA14">
+        <v>-22.459254485972043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="D15">
         <f>D14/D12</f>
         <v>11288.536365683405</v>
@@ -1205,8 +1493,35 @@
         <f>H14/H12</f>
         <v>10204.123210908136</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="P15">
+        <v>3400</v>
+      </c>
+      <c r="T15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15">
+        <v>-133377</v>
+      </c>
+      <c r="W15">
+        <v>-248200</v>
+      </c>
+      <c r="X15">
+        <v>-47148</v>
+      </c>
+      <c r="Y15">
+        <v>26000</v>
+      </c>
+      <c r="Z15">
+        <v>-317800</v>
+      </c>
+      <c r="AA15">
+        <v>-371784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1231,22 +1546,59 @@
       <c r="H16" s="2">
         <v>-595700</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <v>1475</v>
+      </c>
+      <c r="K16" s="2">
+        <v>390</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M16">
+        <f>SUM(J16:L16)</f>
+        <v>11865</v>
+      </c>
+      <c r="P16">
+        <v>1835</v>
+      </c>
+      <c r="U16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16">
+        <v>-82677</v>
+      </c>
+      <c r="W16">
+        <v>248500</v>
+      </c>
+      <c r="X16">
+        <v>-239830</v>
+      </c>
+      <c r="Y16">
+        <v>-226800</v>
+      </c>
+      <c r="Z16">
+        <v>-228700</v>
+      </c>
+      <c r="AA16">
+        <v>-229177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:E17" si="4">C16-C10</f>
+        <f t="shared" ref="C17:E17" si="5">C16-C10</f>
         <v>-27895</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>444100</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-474182</v>
       </c>
       <c r="F17" s="1">
@@ -1261,8 +1613,27 @@
         <f>H16-H10</f>
         <v>-453093</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="P17">
+        <f>SUM(P14:P16)</f>
+        <v>6550</v>
+      </c>
+      <c r="W17">
+        <v>11288.536365683405</v>
+      </c>
+      <c r="X17">
+        <v>10203.530332235301</v>
+      </c>
+      <c r="Y17">
+        <v>10168.509480758461</v>
+      </c>
+      <c r="Z17">
+        <v>10219.830990907178</v>
+      </c>
+      <c r="AA17">
+        <v>10204.123210908136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="D18">
         <f>D17/D12</f>
         <v>20174</v>
@@ -1279,897 +1650,1250 @@
         <f>H17/H12</f>
         <v>20174</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <v>-78595</v>
+      </c>
+      <c r="W18">
+        <v>-52600</v>
+      </c>
+      <c r="X18">
+        <v>-281500</v>
+      </c>
+      <c r="Y18">
+        <v>-197164</v>
+      </c>
+      <c r="Z18">
+        <v>-540555</v>
+      </c>
+      <c r="AA18">
+        <v>-595700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <v>-27895</v>
+      </c>
+      <c r="W19">
+        <v>444100</v>
+      </c>
+      <c r="X19">
+        <v>-474182</v>
+      </c>
+      <c r="Y19">
+        <v>-449964</v>
+      </c>
+      <c r="Z19">
+        <v>-451455</v>
+      </c>
+      <c r="AA19">
+        <v>-453093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="21"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="21"/>
+      <c r="J20">
+        <v>8388607</v>
+      </c>
+      <c r="K20">
+        <v>8309942.2000000002</v>
+      </c>
+      <c r="L20">
+        <v>8382135.5999999996</v>
+      </c>
+      <c r="M20">
+        <v>7740649.7000000002</v>
+      </c>
+      <c r="N20">
+        <v>7930681.2000000002</v>
+      </c>
+      <c r="O20">
+        <v>8582794.3000000007</v>
+      </c>
+      <c r="W20">
+        <v>20174</v>
+      </c>
+      <c r="Y20">
+        <v>20174</v>
+      </c>
+      <c r="Z20">
+        <v>20174</v>
+      </c>
+      <c r="AA20">
+        <v>20174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="8">
-        <v>7744439</v>
-      </c>
-      <c r="D21" s="8">
-        <v>7880947.25</v>
-      </c>
-      <c r="E21" s="8">
-        <v>8579945.375</v>
-      </c>
-      <c r="F21" s="8">
-        <v>8644154</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8304072</v>
-      </c>
-      <c r="H21" s="8">
-        <v>8244640</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C21" s="22">
+        <v>8641922</v>
+      </c>
+      <c r="D21" s="29">
+        <v>8297990.375</v>
+      </c>
+      <c r="E21" s="13">
+        <v>8382263.9000000004</v>
+      </c>
+      <c r="F21" s="37">
+        <v>7741681.2000000002</v>
+      </c>
+      <c r="G21" s="13">
+        <v>7894146.7142857146</v>
+      </c>
+      <c r="H21" s="22">
+        <v>8579496.444444444</v>
+      </c>
+      <c r="J21">
+        <v>8388607</v>
+      </c>
+      <c r="K21">
+        <v>8294030.5999999996</v>
+      </c>
+      <c r="L21">
+        <v>8381415</v>
+      </c>
+      <c r="M21">
+        <v>7740089</v>
+      </c>
+      <c r="N21">
+        <v>7926475.7999999998</v>
+      </c>
+      <c r="O21" s="12">
+        <v>8610307.4000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>7953200</v>
-      </c>
-      <c r="D22">
-        <v>8098756</v>
-      </c>
-      <c r="E22">
-        <v>8340344</v>
-      </c>
-      <c r="F22">
-        <v>8418870</v>
-      </c>
-      <c r="G22">
-        <v>8078600</v>
-      </c>
-      <c r="H22">
-        <v>8017860</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C22" s="23">
+        <v>8410417</v>
+      </c>
+      <c r="D22" s="30">
+        <v>8062618.166666667</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="23">
+        <v>8335249.5999999996</v>
+      </c>
+      <c r="O22">
+        <v>8337583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="11"/>
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="23">
+        <v>8187876</v>
+      </c>
+      <c r="D23" s="30">
+        <v>7837927.055555556</v>
+      </c>
+      <c r="E23" s="15">
+        <v>8389426</v>
+      </c>
+      <c r="F23" s="39">
+        <v>8162937.5</v>
+      </c>
+      <c r="G23" s="35">
+        <v>8323205.3571428573</v>
+      </c>
+      <c r="H23" s="23">
+        <v>8098946</v>
+      </c>
+      <c r="O23">
+        <v>8573331</v>
+      </c>
+      <c r="T23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>7744439</v>
+      </c>
+      <c r="W23">
+        <v>7880947.25</v>
+      </c>
+      <c r="X23">
+        <v>8579945.375</v>
+      </c>
+      <c r="Y23">
+        <v>8644154</v>
+      </c>
+      <c r="Z23">
+        <v>8304072</v>
+      </c>
+      <c r="AA23">
+        <v>8244640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C24" s="23"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="23">
+        <v>8099724.384615385</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>7953200</v>
+      </c>
+      <c r="W24">
+        <v>8098756</v>
+      </c>
+      <c r="X24">
+        <v>8340344</v>
+      </c>
+      <c r="Y24">
+        <v>8418870</v>
+      </c>
+      <c r="Z24">
+        <v>8078600</v>
+      </c>
+      <c r="AA24">
+        <v>8017860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C25" s="23"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" ref="C26:E26" si="6">C22-C21</f>
+        <v>-231505</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" si="6"/>
+        <v>-235372.20833333302</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="6"/>
+        <v>-8382263.9000000004</v>
+      </c>
+      <c r="F26" s="40">
+        <f>F22-F21</f>
+        <v>-7741681.2000000002</v>
+      </c>
+      <c r="G26" s="15">
+        <f>G22-G21</f>
+        <v>-7894146.7142857146</v>
+      </c>
+      <c r="H26" s="23">
+        <f>H22-H21</f>
+        <v>-244246.8444444444</v>
+      </c>
+      <c r="K26" s="45">
+        <v>8389016</v>
+      </c>
+      <c r="O26">
+        <f>O22-O21</f>
+        <v>-272724.40000000037</v>
+      </c>
+      <c r="U26">
+        <v>20</v>
+      </c>
+      <c r="V26">
         <v>8158465</v>
       </c>
-      <c r="D23">
+      <c r="W26">
         <v>8318247</v>
       </c>
-      <c r="E23">
+      <c r="X26">
         <v>8105431</v>
       </c>
-      <c r="F23" s="9">
+      <c r="Y26">
         <v>8195989</v>
       </c>
-      <c r="G23">
+      <c r="Z26">
         <v>7854670</v>
       </c>
-      <c r="H23">
+      <c r="AA26">
         <v>7793970</v>
       </c>
-      <c r="J23">
-        <v>7793673.7999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A27" s="11"/>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" ref="C27:E27" si="7">C23-C21</f>
+        <v>-454046</v>
+      </c>
+      <c r="D27" s="30">
+        <f t="shared" si="7"/>
+        <v>-460063.31944444403</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="7"/>
+        <v>7162.0999999996275</v>
+      </c>
+      <c r="F27" s="40">
+        <f>F23-F21</f>
+        <v>421256.29999999981</v>
+      </c>
+      <c r="G27" s="15">
+        <f>G23-G21</f>
+        <v>429058.64285714272</v>
+      </c>
+      <c r="H27" s="23">
+        <f>H23-H21</f>
+        <v>-480550.44444444403</v>
+      </c>
+      <c r="P27">
+        <f>O27/O29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C28" s="24"/>
+      <c r="D28" s="31"/>
+      <c r="F28" s="41"/>
+      <c r="H28" s="24"/>
+      <c r="U28">
+        <v>20</v>
+      </c>
+      <c r="V28">
+        <v>414026</v>
+      </c>
+      <c r="W28">
+        <v>437299.75</v>
+      </c>
+      <c r="X28">
+        <v>-474514.375</v>
+      </c>
+      <c r="Y28">
+        <v>-448165</v>
+      </c>
+      <c r="Z28">
+        <v>-449402</v>
+      </c>
+      <c r="AA28">
+        <v>-450670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
         <v>10</v>
       </c>
-      <c r="C25">
-        <f t="shared" ref="C25:E25" si="5">C22-C21</f>
-        <v>208761</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="5"/>
-        <v>217808.75</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>-239601.375</v>
-      </c>
-      <c r="F25">
-        <f>F22-F21</f>
-        <v>-225284</v>
-      </c>
-      <c r="G25">
-        <f>G22-G21</f>
-        <v>-225472</v>
-      </c>
-      <c r="H25">
-        <f>H22-H21</f>
-        <v>-226780</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26">
+      <c r="C29" s="24">
+        <f>C26/10391</f>
+        <v>-22.279376383408721</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" ref="D29:H29" si="8">D26/10391</f>
+        <v>-22.651545407884999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>-806.68500625541333</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="8"/>
+        <v>-745.03716677894329</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>-759.71001003615766</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="8"/>
+        <v>-23.505614901784661</v>
+      </c>
+      <c r="O29">
+        <f>O26/11865</f>
+        <v>-22.985621576064084</v>
+      </c>
+      <c r="U29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9">
         <v>20</v>
       </c>
-      <c r="C26">
-        <f t="shared" ref="C26:E26" si="6">C23-C21</f>
-        <v>414026</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
-        <v>437299.75</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>-474514.375</v>
-      </c>
-      <c r="F26">
-        <f>F23-F21</f>
-        <v>-448165</v>
-      </c>
-      <c r="G26">
-        <f>G23-G21</f>
-        <v>-449402</v>
-      </c>
-      <c r="H26">
-        <f>H23-H21</f>
-        <v>-450670</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="11" t="s">
+      <c r="C30" s="25">
+        <f>C27/20391</f>
+        <v>-22.266980530626256</v>
+      </c>
+      <c r="D30" s="32">
+        <f>D27/20391</f>
+        <v>-22.562077359837382</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" ref="E30:H30" si="9">E27/20391</f>
+        <v>0.35123829140305174</v>
+      </c>
+      <c r="F30" s="42">
+        <f t="shared" si="9"/>
+        <v>20.658932862537384</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="9"/>
+        <v>21.041569459915781</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="9"/>
+        <v>-23.566791449386692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C31" s="24"/>
+      <c r="D31" s="31"/>
+      <c r="F31" s="41"/>
+      <c r="H31" s="24"/>
+      <c r="T31" t="s">
         <v>178</v>
       </c>
-      <c r="B28">
+      <c r="U31">
         <v>10</v>
       </c>
-      <c r="C28">
-        <f t="shared" ref="C28:E28" si="7">C25/10174</f>
+      <c r="V31">
         <v>20.519068213092197</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="7"/>
+      <c r="W31">
         <v>21.408369372911341</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="7"/>
+      <c r="X31">
         <v>-23.550361214861411</v>
       </c>
-      <c r="F28">
-        <f>F25/10174</f>
+      <c r="Y31">
         <v>-22.143109887949677</v>
       </c>
-      <c r="G28">
-        <f>G25/10174</f>
+      <c r="Z31">
         <v>-22.16158836249263</v>
       </c>
-      <c r="H28">
-        <f>H25/10174</f>
+      <c r="AA31">
         <v>-22.29015136622764</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C32" s="24"/>
+      <c r="D32" s="31"/>
+      <c r="F32" s="41"/>
+      <c r="H32" s="24"/>
+      <c r="U32">
         <v>20</v>
       </c>
-      <c r="C29" s="12">
-        <f t="shared" ref="C29:E29" si="8">C26/20174</f>
+      <c r="V32">
         <v>20.522752057103201</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="8"/>
+      <c r="W32">
         <v>21.676402795677603</v>
       </c>
-      <c r="E29" s="12">
-        <f t="shared" si="8"/>
+      <c r="X32">
         <v>-23.521085307821949</v>
       </c>
-      <c r="F29" s="12">
-        <f>F26/20174</f>
+      <c r="Y32">
         <v>-22.214979676811737</v>
       </c>
-      <c r="G29" s="12">
-        <f>G26/20174</f>
+      <c r="Z32">
         <v>-22.276296222861109</v>
       </c>
-      <c r="H29" s="12">
-        <f>H26/20174</f>
+      <c r="AA32">
         <v>-22.339149400218101</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F32">
-        <v>8608608</v>
-      </c>
-      <c r="G32">
-        <v>8627108</v>
-      </c>
-      <c r="H32">
-        <v>7735961</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="C33">
-        <f t="shared" ref="C33:E33" si="9">C32/C29</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>(F32-F21)/F29</f>
-        <v>1600.091493088483</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:H33" si="10">(G32-G21)/G29</f>
-        <v>-14501.333469810992</v>
-      </c>
-      <c r="H33">
+      <c r="C33" s="26">
+        <v>8496534</v>
+      </c>
+      <c r="D33" s="33">
+        <v>8151326</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8374940</v>
+      </c>
+      <c r="F33" s="43">
+        <v>7875409</v>
+      </c>
+      <c r="G33" s="18">
+        <v>8058834.2000000002</v>
+      </c>
+      <c r="H33" s="26">
+        <v>8424972.2941176463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C34" s="26">
+        <f>IF(C33="","",(C33-C21)/C29)</f>
+        <v>6525.676369840824</v>
+      </c>
+      <c r="D34" s="33">
+        <f t="shared" ref="D34:H34" si="10">IF(D33="","",(D33-D21)/D29)</f>
+        <v>6474.8065687803428</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="10"/>
-        <v>22770.74166463266</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="H34">
-        <f>H33-174</f>
-        <v>22596.74166463266</v>
-      </c>
-      <c r="L34" s="10" t="s">
+        <v>9.0790084645275684</v>
+      </c>
+      <c r="F34" s="41">
+        <f t="shared" si="10"/>
+        <v>-179.49144816244799</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="10"/>
+        <v>-216.77677474125619</v>
+      </c>
+      <c r="H34" s="26">
+        <f t="shared" si="10"/>
+        <v>6573.9250375902957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C35" s="27">
+        <f>IF(C33="","",(C33-C21)/C30)</f>
+        <v>6529.3091625077641</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" ref="D35:H35" si="11">IF(D33="","",(D33-D21)/D30)</f>
+        <v>6500.4818776606262</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>-20851.655924940362</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" si="11"/>
+        <v>6473.1223480811977</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>7826.7681518726786</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" si="11"/>
+        <v>6556.8599212439294</v>
+      </c>
+      <c r="L35" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L35" t="s">
+    <row r="36" spans="1:18" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L36" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C37" t="e">
+        <f t="shared" ref="C37:G37" si="12">(C33-C21)/C38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="12"/>
+        <v>6547.5167410714294</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="12"/>
+        <v>6523.3073170731614</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="12"/>
+        <v>6587.4994285714256</v>
+      </c>
+      <c r="H37">
+        <f>(H33-H21)/H38</f>
+        <v>6553.1870367598704</v>
+      </c>
+      <c r="L37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L37" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17">
+        <v>-22.4</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17">
+        <v>20.5</v>
+      </c>
+      <c r="G38" s="17">
+        <v>25</v>
+      </c>
+      <c r="H38" s="17">
+        <v>-23.58</v>
+      </c>
+      <c r="L38" t="s">
         <v>17</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L38" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G39" s="45"/>
+      <c r="L39" t="s">
         <v>16</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L39" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="F40" s="17">
+        <v>20.785</v>
+      </c>
+      <c r="L40" t="s">
         <v>18</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R40" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L40" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L42" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L43" t="s">
         <v>21</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N43" t="s">
         <v>24</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P43" t="s">
         <v>169</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L43" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N44" t="s">
         <v>25</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P44" t="s">
         <v>170</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R44" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L44" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L45" t="s">
         <v>23</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N45" t="s">
         <v>26</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P45" t="s">
         <v>171</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L46" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L47" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L47" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L48" t="s">
         <v>28</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M48" t="s">
         <v>29</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N48" t="s">
         <v>30</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q48" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.45">
-      <c r="L48" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L49" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="P49" t="s">
+        <v>33</v>
       </c>
       <c r="Q49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L50" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>35</v>
       </c>
       <c r="N50" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L51" t="s">
-        <v>39</v>
-      </c>
-      <c r="M51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N51" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>38</v>
       </c>
       <c r="Q51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L52" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
       </c>
       <c r="N52" t="s">
-        <v>43</v>
-      </c>
-      <c r="P52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L53" t="s">
-        <v>45</v>
-      </c>
-      <c r="M53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N53" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L54" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="M54" t="s">
+        <v>46</v>
       </c>
       <c r="N54" t="s">
-        <v>48</v>
-      </c>
-      <c r="P54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L55" t="s">
-        <v>50</v>
-      </c>
-      <c r="M55" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N55" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L56" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
       </c>
       <c r="N56" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L57" t="s">
-        <v>56</v>
-      </c>
-      <c r="M57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N57" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="P57" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L58" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="M58" t="s">
+        <v>57</v>
       </c>
       <c r="N58" t="s">
-        <v>60</v>
-      </c>
-      <c r="P58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="P59" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L60" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="M60" t="s">
+        <v>63</v>
       </c>
       <c r="N60" t="s">
-        <v>65</v>
-      </c>
-      <c r="P60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L61" t="s">
-        <v>67</v>
-      </c>
-      <c r="M61" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N61" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="P61" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L62" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="M62" t="s">
+        <v>57</v>
       </c>
       <c r="N62" t="s">
-        <v>70</v>
-      </c>
-      <c r="P62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L63" t="s">
-        <v>72</v>
-      </c>
-      <c r="M63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N63" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="P63" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L64" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="M64" t="s">
+        <v>73</v>
       </c>
       <c r="N64" t="s">
-        <v>76</v>
-      </c>
-      <c r="P64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N65" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="P65" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L66" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="M66" t="s">
+        <v>79</v>
       </c>
       <c r="N66" t="s">
-        <v>82</v>
-      </c>
-      <c r="P66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L67" t="s">
-        <v>84</v>
-      </c>
-      <c r="M67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N67" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="P67" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L68" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="M68" t="s">
+        <v>85</v>
       </c>
       <c r="N68" t="s">
-        <v>88</v>
-      </c>
-      <c r="P68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L69" t="s">
-        <v>90</v>
-      </c>
-      <c r="M69" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N69" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="P69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L70" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="M70" t="s">
+        <v>91</v>
       </c>
       <c r="N70" t="s">
-        <v>93</v>
-      </c>
-      <c r="P70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L71" t="s">
-        <v>56</v>
-      </c>
-      <c r="M71" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="N71" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="P71" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L72" t="s">
-        <v>97</v>
+        <v>56</v>
+      </c>
+      <c r="M72" t="s">
+        <v>95</v>
       </c>
       <c r="N72" t="s">
-        <v>98</v>
-      </c>
-      <c r="P72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L73" t="s">
-        <v>100</v>
-      </c>
-      <c r="M73" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N73" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="P73" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L74" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="M74" t="s">
+        <v>101</v>
       </c>
       <c r="N74" t="s">
-        <v>103</v>
-      </c>
-      <c r="P74" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L75" t="s">
-        <v>105</v>
-      </c>
-      <c r="M75" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N75" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="P75" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L76" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="M76" t="s">
+        <v>106</v>
       </c>
       <c r="N76" t="s">
-        <v>109</v>
-      </c>
-      <c r="P76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L77" t="s">
-        <v>111</v>
-      </c>
-      <c r="M77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N77" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="P77" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L78" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="M78" t="s">
+        <v>112</v>
       </c>
       <c r="N78" t="s">
-        <v>115</v>
-      </c>
-      <c r="P78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L79" t="s">
-        <v>117</v>
-      </c>
-      <c r="M79" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N79" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="P79" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L80" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="M80" t="s">
+        <v>118</v>
       </c>
       <c r="N80" t="s">
-        <v>121</v>
-      </c>
-      <c r="P80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L81" t="s">
-        <v>117</v>
-      </c>
-      <c r="M81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N81" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="P81" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L82" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="M82" t="s">
+        <v>123</v>
       </c>
       <c r="N82" t="s">
-        <v>115</v>
-      </c>
-      <c r="P82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L83" t="s">
-        <v>127</v>
-      </c>
-      <c r="M83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N83" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="P83" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L84" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="M84" t="s">
+        <v>128</v>
       </c>
       <c r="N84" t="s">
-        <v>131</v>
-      </c>
-      <c r="P84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L85" t="s">
-        <v>133</v>
-      </c>
-      <c r="M85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N85" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="P85" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L86" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="M86" t="s">
+        <v>134</v>
       </c>
       <c r="N86" t="s">
-        <v>137</v>
-      </c>
-      <c r="P86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L87" t="s">
-        <v>28</v>
-      </c>
-      <c r="M87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N87" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="P87" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L88" t="s">
-        <v>141</v>
+        <v>28</v>
+      </c>
+      <c r="M88" t="s">
+        <v>139</v>
       </c>
       <c r="N88" t="s">
-        <v>142</v>
-      </c>
-      <c r="P88" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L89" t="s">
-        <v>144</v>
-      </c>
-      <c r="M89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N89" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="P89" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L90" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="M90" t="s">
+        <v>145</v>
       </c>
       <c r="N90" t="s">
-        <v>148</v>
-      </c>
-      <c r="P90" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L91" t="s">
-        <v>150</v>
-      </c>
-      <c r="M91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N91" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="P91" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L92" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="M92" t="s">
+        <v>151</v>
       </c>
       <c r="N92" t="s">
-        <v>154</v>
-      </c>
-      <c r="P92" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L93" t="s">
-        <v>156</v>
-      </c>
-      <c r="M93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N93" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="P93" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L94" t="s">
+        <v>156</v>
+      </c>
+      <c r="M94" t="s">
+        <v>157</v>
+      </c>
+      <c r="N94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L95" t="s">
         <v>159</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N95" t="s">
         <v>160</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P95" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2178,8 +2902,8 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scales.xlsx
+++ b/scales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3438e176fb014ba1/Projecten/Things/PlatformIO/BeeNodeV4_Coordinator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1311" documentId="8_{4504C321-0BA3-4CA8-B010-51F94CCF9399}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7AE76D7F-BF39-49E7-A6A0-1B5B02B31FCC}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="113_{C2FB9D27-BD0C-4B1A-9BC3-2C27F62617BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{651C68A6-0C8D-46A3-94A6-E4455A9CBCCE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="5880" activeTab="5" xr2:uid="{FFEAAD56-8228-4A12-AFC0-80046996DCAE}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Blad3" sheetId="6" r:id="rId6"/>
     <sheet name="Blad4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="188">
   <si>
     <t>Scale1: 272907</t>
   </si>
@@ -597,6 +598,9 @@
   </si>
   <si>
     <t>final</t>
+  </si>
+  <si>
+    <t>nog maar es</t>
   </si>
 </sst>
 </file>
@@ -912,11 +916,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,13 +1242,13 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>1</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1416,8 +1420,8 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A13" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1463,8 +1467,8 @@
         <v>-22.525751916650286</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A14" s="60"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1518,7 @@
       <c r="AB14" s="46"/>
       <c r="AC14" s="46"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D15">
         <f>D14/D12</f>
         <v>11288.536365683405</v>
@@ -1557,8 +1561,8 @@
       <c r="AB15" s="46"/>
       <c r="AC15" s="46"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A16" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1604,8 +1608,8 @@
       <c r="AB16" s="46"/>
       <c r="AC16" s="46"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A17" s="60"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1655,7 +1659,7 @@
       <c r="AB17" s="46"/>
       <c r="AC17" s="46"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D18">
         <f>D17/D12</f>
         <v>20174</v>
@@ -1694,7 +1698,7 @@
       <c r="AB18" s="46"/>
       <c r="AC18" s="46"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="F19" s="10"/>
@@ -1721,7 +1725,7 @@
       <c r="AB19" s="46"/>
       <c r="AC19" s="46"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -1750,8 +1754,8 @@
       <c r="AB20" s="46"/>
       <c r="AC20" s="46"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A21" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B21">
@@ -1787,8 +1791,8 @@
       <c r="AB21" s="46"/>
       <c r="AC21" s="46"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A22" s="60"/>
       <c r="B22">
         <v>10</v>
       </c>
@@ -1822,8 +1826,8 @@
       <c r="AB22" s="46"/>
       <c r="AC22" s="46"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A23" s="60"/>
       <c r="B23">
         <v>20</v>
       </c>
@@ -1855,7 +1859,7 @@
       <c r="AB23" s="46"/>
       <c r="AC23" s="46"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
@@ -1884,7 +1888,7 @@
       <c r="AB24" s="46"/>
       <c r="AC24" s="46"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -1913,8 +1917,8 @@
       <c r="AB25" s="46"/>
       <c r="AC25" s="46"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A26" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B26">
@@ -1966,8 +1970,8 @@
       <c r="AB26" s="46"/>
       <c r="AC26" s="46"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A27" s="60"/>
       <c r="B27">
         <v>20</v>
       </c>
@@ -2017,7 +2021,7 @@
       <c r="AB27" s="46"/>
       <c r="AC27" s="46"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -2046,8 +2050,8 @@
       <c r="AB28" s="46"/>
       <c r="AC28" s="46"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A29" s="60" t="s">
         <v>178</v>
       </c>
       <c r="B29">
@@ -2099,8 +2103,8 @@
       <c r="AB29" s="46"/>
       <c r="AC29" s="46"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A30" s="60"/>
       <c r="B30" s="9">
         <v>20</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="AB30" s="46"/>
       <c r="AC30" s="46"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -2161,7 +2165,7 @@
       <c r="AB31" s="46"/>
       <c r="AC31" s="46"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -2190,7 +2194,7 @@
       <c r="AB32" s="46"/>
       <c r="AC32" s="46"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2224,7 +2228,7 @@
       <c r="AB33" s="46"/>
       <c r="AC33" s="46"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C34" s="40" t="str">
         <f>IF(C33="","",(C33-C21)/C29)</f>
         <v/>
@@ -2271,7 +2275,7 @@
       <c r="AB34" s="46"/>
       <c r="AC34" s="46"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C35" s="43" t="str">
         <f>IF(C33="","",(C33-C21)/C30)</f>
         <v/>
@@ -2318,7 +2322,7 @@
       <c r="AB35" s="46"/>
       <c r="AC35" s="46"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
@@ -2341,7 +2345,7 @@
       <c r="AB36" s="46"/>
       <c r="AC36" s="46"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C37" t="e">
         <f t="shared" ref="C37:G37" si="10">(C33-C21)/C38</f>
         <v>#DIV/0!</v>
@@ -2388,7 +2392,7 @@
       <c r="AB37" s="46"/>
       <c r="AC37" s="46"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D38">
         <v>-22.4</v>
       </c>
@@ -2423,7 +2427,7 @@
       <c r="AB38" s="46"/>
       <c r="AC38" s="46"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I39" s="46"/>
       <c r="J39" s="46"/>
       <c r="K39" s="46"/>
@@ -2446,7 +2450,7 @@
       <c r="AB39" s="46"/>
       <c r="AC39" s="46"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="F40">
         <v>20.785</v>
       </c>
@@ -2472,7 +2476,7 @@
       <c r="AB40" s="46"/>
       <c r="AC40" s="46"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
@@ -2495,7 +2499,7 @@
       <c r="AB41" s="46"/>
       <c r="AC41" s="46"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I42" s="46"/>
       <c r="J42" s="46"/>
       <c r="K42" s="46"/>
@@ -2518,7 +2522,7 @@
       <c r="AB42" s="46"/>
       <c r="AC42" s="46"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
       <c r="K43" s="46"/>
@@ -2541,7 +2545,7 @@
       <c r="AB43" s="46"/>
       <c r="AC43" s="46"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C44" t="e">
         <f t="shared" ref="C44:E44" si="11">ROUND(C34/1000,2)</f>
         <v>#VALUE!</v>
@@ -2588,7 +2592,7 @@
       <c r="AB44" s="46"/>
       <c r="AC44" s="46"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
@@ -2611,7 +2615,7 @@
       <c r="AB45" s="46"/>
       <c r="AC45" s="46"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I46" s="46"/>
       <c r="J46" s="46"/>
       <c r="K46" s="46"/>
@@ -2634,7 +2638,7 @@
       <c r="AB46" s="46"/>
       <c r="AC46" s="46"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I47" s="46"/>
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
@@ -2657,7 +2661,7 @@
       <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
       <c r="K48" s="46"/>
@@ -2680,7 +2684,7 @@
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
     </row>
-    <row r="49" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
@@ -2703,7 +2707,7 @@
       <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
     </row>
-    <row r="50" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
@@ -2726,7 +2730,7 @@
       <c r="AB50" s="46"/>
       <c r="AC50" s="46"/>
     </row>
-    <row r="51" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I51" s="46"/>
       <c r="J51" s="46"/>
       <c r="K51" s="46"/>
@@ -2749,7 +2753,7 @@
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
     </row>
-    <row r="52" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
@@ -2772,7 +2776,7 @@
       <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
     </row>
-    <row r="53" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I53" s="46"/>
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
@@ -2795,7 +2799,7 @@
       <c r="AB53" s="46"/>
       <c r="AC53" s="46"/>
     </row>
-    <row r="54" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I54" s="46"/>
       <c r="J54" s="46"/>
       <c r="K54" s="46"/>
@@ -2818,7 +2822,7 @@
       <c r="AB54" s="46"/>
       <c r="AC54" s="46"/>
     </row>
-    <row r="55" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I55" s="46"/>
       <c r="J55" s="46"/>
       <c r="K55" s="46"/>
@@ -2841,7 +2845,7 @@
       <c r="AB55" s="46"/>
       <c r="AC55" s="46"/>
     </row>
-    <row r="56" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
@@ -2864,7 +2868,7 @@
       <c r="AB56" s="46"/>
       <c r="AC56" s="46"/>
     </row>
-    <row r="57" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
@@ -2887,7 +2891,7 @@
       <c r="AB57" s="46"/>
       <c r="AC57" s="46"/>
     </row>
-    <row r="58" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
       <c r="K58" s="46"/>
@@ -2910,7 +2914,7 @@
       <c r="AB58" s="46"/>
       <c r="AC58" s="46"/>
     </row>
-    <row r="59" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
       <c r="K59" s="46"/>
@@ -2933,7 +2937,7 @@
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
     </row>
-    <row r="60" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
@@ -2956,7 +2960,7 @@
       <c r="AB60" s="46"/>
       <c r="AC60" s="46"/>
     </row>
-    <row r="61" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I61" s="46"/>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
@@ -2979,7 +2983,7 @@
       <c r="AB61" s="46"/>
       <c r="AC61" s="46"/>
     </row>
-    <row r="62" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
@@ -3002,7 +3006,7 @@
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
     </row>
-    <row r="63" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I63" s="46"/>
       <c r="J63" s="46"/>
       <c r="K63" s="46"/>
@@ -3025,7 +3029,7 @@
       <c r="AB63" s="46"/>
       <c r="AC63" s="46"/>
     </row>
-    <row r="64" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I64" s="46"/>
       <c r="J64" s="46"/>
       <c r="K64" s="46"/>
@@ -3048,7 +3052,7 @@
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
     </row>
-    <row r="65" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
       <c r="K65" s="46"/>
@@ -3071,7 +3075,7 @@
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
     </row>
-    <row r="66" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I66" s="46"/>
       <c r="J66" s="46"/>
       <c r="K66" s="46"/>
@@ -3094,7 +3098,7 @@
       <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
     </row>
-    <row r="67" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I67" s="46"/>
       <c r="J67" s="46"/>
       <c r="K67" s="46"/>
@@ -3117,7 +3121,7 @@
       <c r="AB67" s="46"/>
       <c r="AC67" s="46"/>
     </row>
-    <row r="68" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I68" s="46"/>
       <c r="J68" s="46"/>
       <c r="K68" s="46"/>
@@ -3140,7 +3144,7 @@
       <c r="AB68" s="46"/>
       <c r="AC68" s="46"/>
     </row>
-    <row r="69" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I69" s="46"/>
       <c r="J69" s="46"/>
       <c r="K69" s="46"/>
@@ -3163,7 +3167,7 @@
       <c r="AB69" s="46"/>
       <c r="AC69" s="46"/>
     </row>
-    <row r="70" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
       <c r="K70" s="46"/>
@@ -3186,7 +3190,7 @@
       <c r="AB70" s="46"/>
       <c r="AC70" s="46"/>
     </row>
-    <row r="71" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I71" s="46"/>
       <c r="J71" s="46"/>
       <c r="K71" s="46"/>
@@ -3209,7 +3213,7 @@
       <c r="AB71" s="46"/>
       <c r="AC71" s="46"/>
     </row>
-    <row r="72" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="46"/>
@@ -3232,7 +3236,7 @@
       <c r="AB72" s="46"/>
       <c r="AC72" s="46"/>
     </row>
-    <row r="73" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I73" s="46"/>
       <c r="J73" s="46"/>
       <c r="K73" s="46"/>
@@ -3255,7 +3259,7 @@
       <c r="AB73" s="46"/>
       <c r="AC73" s="46"/>
     </row>
-    <row r="74" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I74" s="46"/>
       <c r="J74" s="46"/>
       <c r="K74" s="46"/>
@@ -3278,7 +3282,7 @@
       <c r="AB74" s="46"/>
       <c r="AC74" s="46"/>
     </row>
-    <row r="75" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I75" s="46"/>
       <c r="J75" s="46"/>
       <c r="K75" s="46"/>
@@ -3301,7 +3305,7 @@
       <c r="AB75" s="46"/>
       <c r="AC75" s="46"/>
     </row>
-    <row r="76" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I76" s="46"/>
       <c r="J76" s="46"/>
       <c r="K76" s="46"/>
@@ -3324,7 +3328,7 @@
       <c r="AB76" s="46"/>
       <c r="AC76" s="46"/>
     </row>
-    <row r="77" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I77" s="46"/>
       <c r="J77" s="46"/>
       <c r="K77" s="46"/>
@@ -3347,7 +3351,7 @@
       <c r="AB77" s="46"/>
       <c r="AC77" s="46"/>
     </row>
-    <row r="78" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
       <c r="K78" s="46"/>
@@ -3370,7 +3374,7 @@
       <c r="AB78" s="46"/>
       <c r="AC78" s="46"/>
     </row>
-    <row r="79" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="K79" s="46"/>
@@ -3393,7 +3397,7 @@
       <c r="AB79" s="46"/>
       <c r="AC79" s="46"/>
     </row>
-    <row r="80" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I80" s="46"/>
       <c r="J80" s="46"/>
       <c r="K80" s="46"/>
@@ -3416,7 +3420,7 @@
       <c r="AB80" s="46"/>
       <c r="AC80" s="46"/>
     </row>
-    <row r="81" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I81" s="46"/>
       <c r="J81" s="46"/>
       <c r="K81" s="46"/>
@@ -3439,7 +3443,7 @@
       <c r="AB81" s="46"/>
       <c r="AC81" s="46"/>
     </row>
-    <row r="82" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I82" s="46"/>
       <c r="J82" s="46"/>
       <c r="K82" s="46"/>
@@ -3462,7 +3466,7 @@
       <c r="AB82" s="46"/>
       <c r="AC82" s="46"/>
     </row>
-    <row r="83" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I83" s="46"/>
       <c r="J83" s="46"/>
       <c r="K83" s="46"/>
@@ -3485,7 +3489,7 @@
       <c r="AB83" s="46"/>
       <c r="AC83" s="46"/>
     </row>
-    <row r="84" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I84" s="46"/>
       <c r="J84" s="46"/>
       <c r="K84" s="46"/>
@@ -3508,7 +3512,7 @@
       <c r="AB84" s="46"/>
       <c r="AC84" s="46"/>
     </row>
-    <row r="85" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I85" s="46"/>
       <c r="J85" s="46"/>
       <c r="K85" s="46"/>
@@ -3531,7 +3535,7 @@
       <c r="AB85" s="46"/>
       <c r="AC85" s="46"/>
     </row>
-    <row r="86" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I86" s="46"/>
       <c r="J86" s="46"/>
       <c r="K86" s="46"/>
@@ -3554,7 +3558,7 @@
       <c r="AB86" s="46"/>
       <c r="AC86" s="46"/>
     </row>
-    <row r="87" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I87" s="46"/>
       <c r="J87" s="46"/>
       <c r="K87" s="46"/>
@@ -3577,7 +3581,7 @@
       <c r="AB87" s="46"/>
       <c r="AC87" s="46"/>
     </row>
-    <row r="88" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I88" s="46"/>
       <c r="J88" s="46"/>
       <c r="K88" s="46"/>
@@ -3600,7 +3604,7 @@
       <c r="AB88" s="46"/>
       <c r="AC88" s="46"/>
     </row>
-    <row r="89" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I89" s="46"/>
       <c r="J89" s="46"/>
       <c r="K89" s="46"/>
@@ -3623,7 +3627,7 @@
       <c r="AB89" s="46"/>
       <c r="AC89" s="46"/>
     </row>
-    <row r="90" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I90" s="46"/>
       <c r="J90" s="46"/>
       <c r="K90" s="46"/>
@@ -3646,7 +3650,7 @@
       <c r="AB90" s="46"/>
       <c r="AC90" s="46"/>
     </row>
-    <row r="91" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I91" s="46"/>
       <c r="J91" s="46"/>
       <c r="K91" s="46"/>
@@ -3669,7 +3673,7 @@
       <c r="AB91" s="46"/>
       <c r="AC91" s="46"/>
     </row>
-    <row r="92" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I92" s="46"/>
       <c r="J92" s="46"/>
       <c r="K92" s="46"/>
@@ -3692,7 +3696,7 @@
       <c r="AB92" s="46"/>
       <c r="AC92" s="46"/>
     </row>
-    <row r="93" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I93" s="46"/>
       <c r="J93" s="46"/>
       <c r="K93" s="46"/>
@@ -3715,7 +3719,7 @@
       <c r="AB93" s="46"/>
       <c r="AC93" s="46"/>
     </row>
-    <row r="94" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I94" s="46"/>
       <c r="J94" s="46"/>
       <c r="K94" s="46"/>
@@ -3738,7 +3742,7 @@
       <c r="AB94" s="46"/>
       <c r="AC94" s="46"/>
     </row>
-    <row r="95" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I95" s="46"/>
       <c r="J95" s="46"/>
       <c r="K95" s="46"/>
@@ -3761,7 +3765,7 @@
       <c r="AB95" s="46"/>
       <c r="AC95" s="46"/>
     </row>
-    <row r="96" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I96" s="46"/>
       <c r="J96" s="46"/>
       <c r="K96" s="46"/>
@@ -3784,7 +3788,7 @@
       <c r="AB96" s="46"/>
       <c r="AC96" s="46"/>
     </row>
-    <row r="97" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I97" s="46"/>
       <c r="J97" s="46"/>
       <c r="K97" s="46"/>
@@ -3826,7 +3830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3840,13 +3844,13 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>1</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4018,8 +4022,8 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A13" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4065,8 +4069,8 @@
         <v>-22.525751916650286</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A14" s="60"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4120,7 @@
       <c r="AB14" s="46"/>
       <c r="AC14" s="46"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D15">
         <f>D14/D12</f>
         <v>11288.536365683405</v>
@@ -4159,8 +4163,8 @@
       <c r="AB15" s="46"/>
       <c r="AC15" s="46"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A16" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4206,8 +4210,8 @@
       <c r="AB16" s="46"/>
       <c r="AC16" s="46"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A17" s="60"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4257,7 +4261,7 @@
       <c r="AB17" s="46"/>
       <c r="AC17" s="46"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D18">
         <f>D17/D12</f>
         <v>20174</v>
@@ -4296,7 +4300,7 @@
       <c r="AB18" s="46"/>
       <c r="AC18" s="46"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="F19" s="10"/>
@@ -4323,7 +4327,7 @@
       <c r="AB19" s="46"/>
       <c r="AC19" s="46"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -4354,8 +4358,8 @@
       <c r="AB20" s="46"/>
       <c r="AC20" s="46"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A21" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B21">
@@ -4397,8 +4401,8 @@
       <c r="AB21" s="46"/>
       <c r="AC21" s="46"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A22" s="60"/>
       <c r="B22">
         <v>10</v>
       </c>
@@ -4438,8 +4442,8 @@
       <c r="AB22" s="46"/>
       <c r="AC22" s="46"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A23" s="60"/>
       <c r="B23">
         <v>20</v>
       </c>
@@ -4471,7 +4475,7 @@
       <c r="AB23" s="46"/>
       <c r="AC23" s="46"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
@@ -4502,7 +4506,7 @@
       <c r="AB24" s="46"/>
       <c r="AC24" s="46"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -4531,8 +4535,8 @@
       <c r="AB25" s="46"/>
       <c r="AC25" s="46"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A26" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B26">
@@ -4584,8 +4588,8 @@
       <c r="AB26" s="46"/>
       <c r="AC26" s="46"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A27" s="60"/>
       <c r="B27">
         <v>20</v>
       </c>
@@ -4635,7 +4639,7 @@
       <c r="AB27" s="46"/>
       <c r="AC27" s="46"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -4664,8 +4668,8 @@
       <c r="AB28" s="46"/>
       <c r="AC28" s="46"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A29" s="60" t="s">
         <v>178</v>
       </c>
       <c r="B29">
@@ -4717,8 +4721,8 @@
       <c r="AB29" s="46"/>
       <c r="AC29" s="46"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A30" s="60"/>
       <c r="B30" s="9">
         <v>20</v>
       </c>
@@ -4750,7 +4754,7 @@
       <c r="AB30" s="46"/>
       <c r="AC30" s="46"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -4779,7 +4783,7 @@
       <c r="AB31" s="46"/>
       <c r="AC31" s="46"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -4808,7 +4812,7 @@
       <c r="AB32" s="46"/>
       <c r="AC32" s="46"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -4848,7 +4852,7 @@
       <c r="AB33" s="46"/>
       <c r="AC33" s="46"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C34" s="40" t="str">
         <f>IF(C33="","",(C33-C21)/C29)</f>
         <v/>
@@ -4895,7 +4899,7 @@
       <c r="AB34" s="46"/>
       <c r="AC34" s="46"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C35" s="43" t="str">
         <f>IF(C33="","",(C33-C21)/C30)</f>
         <v/>
@@ -4942,7 +4946,7 @@
       <c r="AB35" s="46"/>
       <c r="AC35" s="46"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
@@ -4965,7 +4969,7 @@
       <c r="AB36" s="46"/>
       <c r="AC36" s="46"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C37" t="e">
         <f t="shared" ref="C37:G37" si="11">(C33-C21)/C38</f>
         <v>#DIV/0!</v>
@@ -5012,7 +5016,7 @@
       <c r="AB37" s="46"/>
       <c r="AC37" s="46"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D38">
         <v>-22.4</v>
       </c>
@@ -5047,7 +5051,7 @@
       <c r="AB38" s="46"/>
       <c r="AC38" s="46"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I39" s="46"/>
       <c r="J39" s="46"/>
       <c r="K39" s="46"/>
@@ -5070,7 +5074,7 @@
       <c r="AB39" s="46"/>
       <c r="AC39" s="46"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="F40">
         <v>20.785</v>
       </c>
@@ -5096,7 +5100,7 @@
       <c r="AB40" s="46"/>
       <c r="AC40" s="46"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
@@ -5119,7 +5123,7 @@
       <c r="AB41" s="46"/>
       <c r="AC41" s="46"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I42" s="46"/>
       <c r="J42" s="46"/>
       <c r="K42" s="46"/>
@@ -5142,7 +5146,7 @@
       <c r="AB42" s="46"/>
       <c r="AC42" s="46"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
       <c r="K43" s="46"/>
@@ -5165,7 +5169,7 @@
       <c r="AB43" s="46"/>
       <c r="AC43" s="46"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C44" t="e">
         <f t="shared" ref="C44:E44" si="12">ROUND(C34/1000,2)</f>
         <v>#VALUE!</v>
@@ -5212,7 +5216,7 @@
       <c r="AB44" s="46"/>
       <c r="AC44" s="46"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
@@ -5235,7 +5239,7 @@
       <c r="AB45" s="46"/>
       <c r="AC45" s="46"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I46" s="46"/>
       <c r="J46" s="46"/>
       <c r="K46" s="46"/>
@@ -5258,7 +5262,7 @@
       <c r="AB46" s="46"/>
       <c r="AC46" s="46"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I47" s="46"/>
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
@@ -5281,7 +5285,7 @@
       <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
       <c r="K48" s="46"/>
@@ -5304,7 +5308,7 @@
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
     </row>
-    <row r="49" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
@@ -5327,7 +5331,7 @@
       <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
     </row>
-    <row r="50" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I50" s="46"/>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
@@ -5350,7 +5354,7 @@
       <c r="AB50" s="46"/>
       <c r="AC50" s="46"/>
     </row>
-    <row r="51" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I51" s="46"/>
       <c r="J51" s="46"/>
       <c r="K51" s="46"/>
@@ -5373,7 +5377,7 @@
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
     </row>
-    <row r="52" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
@@ -5396,7 +5400,7 @@
       <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
     </row>
-    <row r="53" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I53" s="46"/>
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
@@ -5419,7 +5423,7 @@
       <c r="AB53" s="46"/>
       <c r="AC53" s="46"/>
     </row>
-    <row r="54" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I54" s="46"/>
       <c r="J54" s="46"/>
       <c r="K54" s="46"/>
@@ -5442,7 +5446,7 @@
       <c r="AB54" s="46"/>
       <c r="AC54" s="46"/>
     </row>
-    <row r="55" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I55" s="46"/>
       <c r="J55" s="46"/>
       <c r="K55" s="46"/>
@@ -5465,7 +5469,7 @@
       <c r="AB55" s="46"/>
       <c r="AC55" s="46"/>
     </row>
-    <row r="56" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
@@ -5488,7 +5492,7 @@
       <c r="AB56" s="46"/>
       <c r="AC56" s="46"/>
     </row>
-    <row r="57" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
@@ -5511,7 +5515,7 @@
       <c r="AB57" s="46"/>
       <c r="AC57" s="46"/>
     </row>
-    <row r="58" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
       <c r="K58" s="46"/>
@@ -5534,7 +5538,7 @@
       <c r="AB58" s="46"/>
       <c r="AC58" s="46"/>
     </row>
-    <row r="59" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
       <c r="K59" s="46"/>
@@ -5557,7 +5561,7 @@
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
     </row>
-    <row r="60" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
@@ -5580,7 +5584,7 @@
       <c r="AB60" s="46"/>
       <c r="AC60" s="46"/>
     </row>
-    <row r="61" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I61" s="46"/>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
@@ -5603,7 +5607,7 @@
       <c r="AB61" s="46"/>
       <c r="AC61" s="46"/>
     </row>
-    <row r="62" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
@@ -5626,7 +5630,7 @@
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
     </row>
-    <row r="63" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I63" s="46"/>
       <c r="J63" s="46"/>
       <c r="K63" s="46"/>
@@ -5649,7 +5653,7 @@
       <c r="AB63" s="46"/>
       <c r="AC63" s="46"/>
     </row>
-    <row r="64" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I64" s="46"/>
       <c r="J64" s="46"/>
       <c r="K64" s="46"/>
@@ -5672,7 +5676,7 @@
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
     </row>
-    <row r="65" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
       <c r="K65" s="46"/>
@@ -5695,7 +5699,7 @@
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
     </row>
-    <row r="66" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I66" s="46"/>
       <c r="J66" s="46"/>
       <c r="K66" s="46"/>
@@ -5718,7 +5722,7 @@
       <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
     </row>
-    <row r="67" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I67" s="46"/>
       <c r="J67" s="46"/>
       <c r="K67" s="46"/>
@@ -5741,7 +5745,7 @@
       <c r="AB67" s="46"/>
       <c r="AC67" s="46"/>
     </row>
-    <row r="68" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I68" s="46"/>
       <c r="J68" s="46"/>
       <c r="K68" s="46"/>
@@ -5764,7 +5768,7 @@
       <c r="AB68" s="46"/>
       <c r="AC68" s="46"/>
     </row>
-    <row r="69" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I69" s="46"/>
       <c r="J69" s="46"/>
       <c r="K69" s="46"/>
@@ -5787,7 +5791,7 @@
       <c r="AB69" s="46"/>
       <c r="AC69" s="46"/>
     </row>
-    <row r="70" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I70" s="46"/>
       <c r="J70" s="46"/>
       <c r="K70" s="46"/>
@@ -5810,7 +5814,7 @@
       <c r="AB70" s="46"/>
       <c r="AC70" s="46"/>
     </row>
-    <row r="71" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I71" s="46"/>
       <c r="J71" s="46"/>
       <c r="K71" s="46"/>
@@ -5833,7 +5837,7 @@
       <c r="AB71" s="46"/>
       <c r="AC71" s="46"/>
     </row>
-    <row r="72" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I72" s="46"/>
       <c r="J72" s="46"/>
       <c r="K72" s="46"/>
@@ -5856,7 +5860,7 @@
       <c r="AB72" s="46"/>
       <c r="AC72" s="46"/>
     </row>
-    <row r="73" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I73" s="46"/>
       <c r="J73" s="46"/>
       <c r="K73" s="46"/>
@@ -5879,7 +5883,7 @@
       <c r="AB73" s="46"/>
       <c r="AC73" s="46"/>
     </row>
-    <row r="74" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I74" s="46"/>
       <c r="J74" s="46"/>
       <c r="K74" s="46"/>
@@ -5902,7 +5906,7 @@
       <c r="AB74" s="46"/>
       <c r="AC74" s="46"/>
     </row>
-    <row r="75" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I75" s="46"/>
       <c r="J75" s="46"/>
       <c r="K75" s="46"/>
@@ -5925,7 +5929,7 @@
       <c r="AB75" s="46"/>
       <c r="AC75" s="46"/>
     </row>
-    <row r="76" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I76" s="46"/>
       <c r="J76" s="46"/>
       <c r="K76" s="46"/>
@@ -5948,7 +5952,7 @@
       <c r="AB76" s="46"/>
       <c r="AC76" s="46"/>
     </row>
-    <row r="77" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I77" s="46"/>
       <c r="J77" s="46"/>
       <c r="K77" s="46"/>
@@ -5971,7 +5975,7 @@
       <c r="AB77" s="46"/>
       <c r="AC77" s="46"/>
     </row>
-    <row r="78" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I78" s="46"/>
       <c r="J78" s="46"/>
       <c r="K78" s="46"/>
@@ -5994,7 +5998,7 @@
       <c r="AB78" s="46"/>
       <c r="AC78" s="46"/>
     </row>
-    <row r="79" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="K79" s="46"/>
@@ -6017,7 +6021,7 @@
       <c r="AB79" s="46"/>
       <c r="AC79" s="46"/>
     </row>
-    <row r="80" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I80" s="46"/>
       <c r="J80" s="46"/>
       <c r="K80" s="46"/>
@@ -6040,7 +6044,7 @@
       <c r="AB80" s="46"/>
       <c r="AC80" s="46"/>
     </row>
-    <row r="81" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I81" s="46"/>
       <c r="J81" s="46"/>
       <c r="K81" s="46"/>
@@ -6063,7 +6067,7 @@
       <c r="AB81" s="46"/>
       <c r="AC81" s="46"/>
     </row>
-    <row r="82" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I82" s="46"/>
       <c r="J82" s="46"/>
       <c r="K82" s="46"/>
@@ -6086,7 +6090,7 @@
       <c r="AB82" s="46"/>
       <c r="AC82" s="46"/>
     </row>
-    <row r="83" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I83" s="46"/>
       <c r="J83" s="46"/>
       <c r="K83" s="46"/>
@@ -6109,7 +6113,7 @@
       <c r="AB83" s="46"/>
       <c r="AC83" s="46"/>
     </row>
-    <row r="84" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I84" s="46"/>
       <c r="J84" s="46"/>
       <c r="K84" s="46"/>
@@ -6132,7 +6136,7 @@
       <c r="AB84" s="46"/>
       <c r="AC84" s="46"/>
     </row>
-    <row r="85" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I85" s="46"/>
       <c r="J85" s="46"/>
       <c r="K85" s="46"/>
@@ -6155,7 +6159,7 @@
       <c r="AB85" s="46"/>
       <c r="AC85" s="46"/>
     </row>
-    <row r="86" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I86" s="46"/>
       <c r="J86" s="46"/>
       <c r="K86" s="46"/>
@@ -6178,7 +6182,7 @@
       <c r="AB86" s="46"/>
       <c r="AC86" s="46"/>
     </row>
-    <row r="87" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I87" s="46"/>
       <c r="J87" s="46"/>
       <c r="K87" s="46"/>
@@ -6201,7 +6205,7 @@
       <c r="AB87" s="46"/>
       <c r="AC87" s="46"/>
     </row>
-    <row r="88" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I88" s="46"/>
       <c r="J88" s="46"/>
       <c r="K88" s="46"/>
@@ -6224,7 +6228,7 @@
       <c r="AB88" s="46"/>
       <c r="AC88" s="46"/>
     </row>
-    <row r="89" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I89" s="46"/>
       <c r="J89" s="46"/>
       <c r="K89" s="46"/>
@@ -6247,7 +6251,7 @@
       <c r="AB89" s="46"/>
       <c r="AC89" s="46"/>
     </row>
-    <row r="90" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I90" s="46"/>
       <c r="J90" s="46"/>
       <c r="K90" s="46"/>
@@ -6270,7 +6274,7 @@
       <c r="AB90" s="46"/>
       <c r="AC90" s="46"/>
     </row>
-    <row r="91" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I91" s="46"/>
       <c r="J91" s="46"/>
       <c r="K91" s="46"/>
@@ -6293,7 +6297,7 @@
       <c r="AB91" s="46"/>
       <c r="AC91" s="46"/>
     </row>
-    <row r="92" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I92" s="46"/>
       <c r="J92" s="46"/>
       <c r="K92" s="46"/>
@@ -6316,7 +6320,7 @@
       <c r="AB92" s="46"/>
       <c r="AC92" s="46"/>
     </row>
-    <row r="93" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I93" s="46"/>
       <c r="J93" s="46"/>
       <c r="K93" s="46"/>
@@ -6339,7 +6343,7 @@
       <c r="AB93" s="46"/>
       <c r="AC93" s="46"/>
     </row>
-    <row r="94" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I94" s="46"/>
       <c r="J94" s="46"/>
       <c r="K94" s="46"/>
@@ -6362,7 +6366,7 @@
       <c r="AB94" s="46"/>
       <c r="AC94" s="46"/>
     </row>
-    <row r="95" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I95" s="46"/>
       <c r="J95" s="46"/>
       <c r="K95" s="46"/>
@@ -6385,7 +6389,7 @@
       <c r="AB95" s="46"/>
       <c r="AC95" s="46"/>
     </row>
-    <row r="96" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I96" s="46"/>
       <c r="J96" s="46"/>
       <c r="K96" s="46"/>
@@ -6408,7 +6412,7 @@
       <c r="AB96" s="46"/>
       <c r="AC96" s="46"/>
     </row>
-    <row r="97" spans="9:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:29" x14ac:dyDescent="0.45">
       <c r="I97" s="46"/>
       <c r="J97" s="46"/>
       <c r="K97" s="46"/>
@@ -6452,13 +6456,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
         <v>2</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>1</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -6630,8 +6634,8 @@
         <v>-142607</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A13" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -6677,8 +6681,8 @@
         <v>-22.525751916650286</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A14" s="60"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>-22.459254485972043</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="D15">
         <f>D14/D12</f>
         <v>11288.536365683405</v>
@@ -6790,8 +6794,8 @@
         <v>-371784</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -6853,8 +6857,8 @@
         <v>-229177</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" s="60"/>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>10204.123210908136</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="D18">
         <f>D17/D12</f>
         <v>20174</v>
@@ -6944,7 +6948,7 @@
         <v>-595700</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="F19" s="10"/>
@@ -6971,7 +6975,7 @@
         <v>-453093</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C20" s="20"/>
       <c r="D20" s="27"/>
       <c r="E20" s="45"/>
@@ -7009,8 +7013,8 @@
         <v>20174</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B21">
@@ -7053,8 +7057,8 @@
         <v>8610307.4000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="60"/>
       <c r="B22">
         <v>10</v>
       </c>
@@ -7074,8 +7078,8 @@
         <v>8337583</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+    <row r="23" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="60"/>
       <c r="B23">
         <v>20</v>
       </c>
@@ -7125,7 +7129,7 @@
         <v>8244640</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C24" s="22"/>
       <c r="D24" s="29"/>
       <c r="E24" s="14"/>
@@ -7156,7 +7160,7 @@
         <v>8017860</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C25" s="22"/>
       <c r="D25" s="29"/>
       <c r="E25" s="14"/>
@@ -7164,8 +7168,8 @@
       <c r="G25" s="14"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A26" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B26">
@@ -7224,8 +7228,8 @@
         <v>7793970</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A27" s="60"/>
       <c r="B27">
         <v>20</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C28" s="23"/>
       <c r="D28" s="30"/>
       <c r="F28" s="40"/>
@@ -7285,8 +7289,8 @@
         <v>-450670</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A29" s="60" t="s">
         <v>178</v>
       </c>
       <c r="B29">
@@ -7324,8 +7328,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A30" s="60"/>
       <c r="B30" s="9">
         <v>20</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>-23.566791449386692</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C31" s="23"/>
       <c r="D31" s="30"/>
       <c r="F31" s="40"/>
@@ -7384,7 +7388,7 @@
         <v>-22.29015136622764</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C32" s="23"/>
       <c r="D32" s="30"/>
       <c r="F32" s="40"/>
@@ -7411,7 +7415,7 @@
         <v>-22.339149400218101</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>8424972.2941176463</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C34" s="25">
         <f>IF(C33="","",(C33-C21)/C29)</f>
         <v>6525.676369840824</v>
@@ -7460,7 +7464,7 @@
         <v>6573.9250375902957</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C35" s="26">
         <f>IF(C33="","",(C33-C21)/C30)</f>
         <v>6529.3091625077641</v>
@@ -7489,12 +7493,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="L36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C37" t="e">
         <f t="shared" ref="C37:G37" si="12">(C33-C21)/C38</f>
         <v>#DIV/0!</v>
@@ -7523,7 +7527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C38" s="16"/>
       <c r="D38" s="16">
         <v>-22.4</v>
@@ -7545,7 +7549,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="G39" s="44"/>
       <c r="L39" t="s">
         <v>16</v>
@@ -7554,7 +7558,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F40" s="16">
         <v>20.785</v>
       </c>
@@ -7565,12 +7569,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L43" t="s">
         <v>21</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L44" t="s">
         <v>22</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L45" t="s">
         <v>23</v>
       </c>
@@ -7612,7 +7616,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L47" t="s">
         <v>27</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L48" t="s">
         <v>28</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L49" t="s">
         <v>31</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L50" t="s">
         <v>34</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L51" t="s">
         <v>37</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L52" t="s">
         <v>39</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L53" t="s">
         <v>42</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L54" t="s">
         <v>45</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L55" t="s">
         <v>42</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L56" t="s">
         <v>50</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L57" t="s">
         <v>53</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L58" t="s">
         <v>56</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L59" t="s">
         <v>59</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L60" t="s">
         <v>62</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L61" t="s">
         <v>42</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L62" t="s">
         <v>67</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L63" t="s">
         <v>69</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:17" x14ac:dyDescent="0.45">
       <c r="L64" t="s">
         <v>72</v>
       </c>
@@ -7825,7 +7829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L65" t="s">
         <v>75</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L66" t="s">
         <v>78</v>
       </c>
@@ -7847,7 +7851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L67" t="s">
         <v>81</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L68" t="s">
         <v>84</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L69" t="s">
         <v>87</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L70" t="s">
         <v>90</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L71" t="s">
         <v>37</v>
       </c>
@@ -7902,7 +7906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L72" t="s">
         <v>56</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L73" t="s">
         <v>97</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L74" t="s">
         <v>100</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L75" t="s">
         <v>102</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L76" t="s">
         <v>105</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L77" t="s">
         <v>108</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L78" t="s">
         <v>111</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L79" t="s">
         <v>114</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L80" t="s">
         <v>117</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L81" t="s">
         <v>120</v>
       </c>
@@ -8012,7 +8016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L82" t="s">
         <v>117</v>
       </c>
@@ -8023,7 +8027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L83" t="s">
         <v>125</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L84" t="s">
         <v>127</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L85" t="s">
         <v>130</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L86" t="s">
         <v>133</v>
       </c>
@@ -8067,7 +8071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L87" t="s">
         <v>136</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L88" t="s">
         <v>28</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L89" t="s">
         <v>141</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L90" t="s">
         <v>144</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L91" t="s">
         <v>147</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L92" t="s">
         <v>150</v>
       </c>
@@ -8133,7 +8137,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L93" t="s">
         <v>153</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L94" t="s">
         <v>156</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:16" x14ac:dyDescent="0.45">
       <c r="L95" t="s">
         <v>159</v>
       </c>
@@ -8187,9 +8191,9 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>8640330</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>8426994</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>8640356</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>8427012</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>8640408</v>
       </c>
@@ -8249,7 +8253,7 @@
         <v>8426991</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>8640409</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>8427028</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>8640402</v>
       </c>
@@ -8289,7 +8293,7 @@
         <v>8427015</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>8640386</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>8427244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8640270</v>
       </c>
@@ -8329,7 +8333,7 @@
         <v>8426980</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8640325</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>8427136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8640326</v>
       </c>
@@ -8369,7 +8373,7 @@
         <v>8427050</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8640391</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>8427224</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8640281</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>8427027</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8640358</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>8427091</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8640393</v>
       </c>
@@ -8449,7 +8453,7 @@
         <v>8427205</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>8640308</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>8427147</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>8640254</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>8427021</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>8640349</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>8427053</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>8640385</v>
       </c>
@@ -8529,7 +8533,7 @@
         <v>8427054</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>8640270</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>8426980</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>8640325</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>8427136</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>8640326</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>8427050</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="50">
         <f>AVERAGE(A1:A20)</f>
         <v>8640342.5999999996</v>
@@ -8626,19 +8630,20 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>181</v>
       </c>
@@ -8651,8 +8656,11 @@
       <c r="E1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -8665,11 +8673,14 @@
       <c r="D2" s="58">
         <v>8730984</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="59">
         <v>8732445</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>8768517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>22740</v>
       </c>
@@ -8679,26 +8690,26 @@
       <c r="D3" s="58">
         <v>24570</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="59">
         <v>24480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>8741877</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>23740</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>8720102.0373563226</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>24400</v>
       </c>
@@ -8717,12 +8728,12 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -8737,7 +8748,7 @@
         <v>8732445.6259351615</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8748,7 +8759,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -8759,7 +8770,7 @@
         <v>8732585</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -8770,7 +8781,7 @@
         <v>8732543</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -8781,7 +8792,7 @@
         <v>8732585</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -8792,7 +8803,7 @@
         <v>8732573</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -8803,7 +8814,7 @@
         <v>8732560</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -8814,7 +8825,7 @@
         <v>8732589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -8825,7 +8836,7 @@
         <v>8732572</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -8836,7 +8847,7 @@
         <v>8732537</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -8847,7 +8858,7 @@
         <v>8732604</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -8858,7 +8869,7 @@
         <v>8732600</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -8869,7 +8880,7 @@
         <v>8732581</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -8880,7 +8891,7 @@
         <v>8732569</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -8891,7 +8902,7 @@
         <v>8732566</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -8902,7 +8913,7 @@
         <v>8732559</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -8913,7 +8924,7 @@
         <v>8732562</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -8924,7 +8935,7 @@
         <v>8732554</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -8935,7 +8946,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -8946,7 +8957,7 @@
         <v>8732567</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -8957,7 +8968,7 @@
         <v>8732569</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -8968,7 +8979,7 @@
         <v>8732562</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -8979,7 +8990,7 @@
         <v>8732578</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -8990,7 +9001,7 @@
         <v>8732594</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -9001,7 +9012,7 @@
         <v>8732564</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -9012,7 +9023,7 @@
         <v>8732590</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -9023,7 +9034,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -9034,7 +9045,7 @@
         <v>8732568</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -9045,7 +9056,7 @@
         <v>8732576</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -9056,7 +9067,7 @@
         <v>8732575</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -9067,7 +9078,7 @@
         <v>8732541</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -9078,7 +9089,7 @@
         <v>8732557</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -9089,7 +9100,7 @@
         <v>8732540</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -9100,7 +9111,7 @@
         <v>8732569</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -9111,7 +9122,7 @@
         <v>8732583</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -9122,7 +9133,7 @@
         <v>8732571</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -9133,7 +9144,7 @@
         <v>8732565</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -9144,7 +9155,7 @@
         <v>8732548</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -9155,7 +9166,7 @@
         <v>8732546</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -9166,7 +9177,7 @@
         <v>8732577</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -9177,7 +9188,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -9188,7 +9199,7 @@
         <v>8732545</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -9199,7 +9210,7 @@
         <v>8732547</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -9210,7 +9221,7 @@
         <v>8732573</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -9221,7 +9232,7 @@
         <v>8732548</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -9232,7 +9243,7 @@
         <v>8732548</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -9243,7 +9254,7 @@
         <v>8732574</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -9254,7 +9265,7 @@
         <v>8732544</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -9265,7 +9276,7 @@
         <v>8732552</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -9276,7 +9287,7 @@
         <v>8732550</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -9287,7 +9298,7 @@
         <v>8732529</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -9298,7 +9309,7 @@
         <v>8732515</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -9309,7 +9320,7 @@
         <v>8732560</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -9320,7 +9331,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>182</v>
       </c>
@@ -9331,7 +9342,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -9342,7 +9353,7 @@
         <v>8732562</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -9353,7 +9364,7 @@
         <v>8732549</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -9364,7 +9375,7 @@
         <v>8732536</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -9375,7 +9386,7 @@
         <v>8732570</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -9386,7 +9397,7 @@
         <v>8732524</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -9397,7 +9408,7 @@
         <v>8732549</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -9408,7 +9419,7 @@
         <v>8732551</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>182</v>
       </c>
@@ -9419,7 +9430,7 @@
         <v>8732538</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -9430,7 +9441,7 @@
         <v>8732532</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -9441,7 +9452,7 @@
         <v>8732532</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -9452,7 +9463,7 @@
         <v>8732554</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -9463,7 +9474,7 @@
         <v>8732550</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -9474,7 +9485,7 @@
         <v>8732553</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>182</v>
       </c>
@@ -9485,7 +9496,7 @@
         <v>8732545</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -9496,7 +9507,7 @@
         <v>8732525</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>182</v>
       </c>
@@ -9507,7 +9518,7 @@
         <v>8732533</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -9518,7 +9529,7 @@
         <v>8732533</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -9529,7 +9540,7 @@
         <v>8732528</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -9540,7 +9551,7 @@
         <v>8732526</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>182</v>
       </c>
@@ -9551,7 +9562,7 @@
         <v>8732546</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -9562,7 +9573,7 @@
         <v>8732532</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -9573,7 +9584,7 @@
         <v>8732541</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -9584,7 +9595,7 @@
         <v>8732506</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -9595,7 +9606,7 @@
         <v>8732531</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>182</v>
       </c>
@@ -9606,7 +9617,7 @@
         <v>8732520</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -9617,7 +9628,7 @@
         <v>8732517</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -9628,7 +9639,7 @@
         <v>8732505</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -9639,7 +9650,7 @@
         <v>8732548</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -9650,7 +9661,7 @@
         <v>8732516</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -9661,7 +9672,7 @@
         <v>8732512</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>182</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>8732547</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -9683,7 +9694,7 @@
         <v>8732493</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -9694,7 +9705,7 @@
         <v>8732526</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -9705,7 +9716,7 @@
         <v>8732517</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -9716,7 +9727,7 @@
         <v>8732526</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -9727,7 +9738,7 @@
         <v>8732483</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -9738,7 +9749,7 @@
         <v>8732528</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -9749,7 +9760,7 @@
         <v>8732523</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -9760,7 +9771,7 @@
         <v>8732511</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>182</v>
       </c>
@@ -9771,7 +9782,7 @@
         <v>8732491</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -9782,7 +9793,7 @@
         <v>8732475</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>182</v>
       </c>
@@ -9793,7 +9804,7 @@
         <v>8732527</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -9804,7 +9815,7 @@
         <v>8732527</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -9815,7 +9826,7 @@
         <v>8732504</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -9826,7 +9837,7 @@
         <v>8732524</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>182</v>
       </c>
@@ -9837,7 +9848,7 @@
         <v>8732503</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -9848,7 +9859,7 @@
         <v>8732501</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -9859,7 +9870,7 @@
         <v>8732524</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>182</v>
       </c>
@@ -9870,7 +9881,7 @@
         <v>8732524</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -9881,7 +9892,7 @@
         <v>8732499</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>182</v>
       </c>
@@ -9892,7 +9903,7 @@
         <v>8732535</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -9903,7 +9914,7 @@
         <v>8732520</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>182</v>
       </c>
@@ -9914,7 +9925,7 @@
         <v>8732495</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -9925,7 +9936,7 @@
         <v>8732497</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -9936,7 +9947,7 @@
         <v>8732513</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>182</v>
       </c>
@@ -9947,7 +9958,7 @@
         <v>8732484</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>182</v>
       </c>
@@ -9958,7 +9969,7 @@
         <v>8732510</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>182</v>
       </c>
@@ -9969,7 +9980,7 @@
         <v>8732501</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>182</v>
       </c>
@@ -9980,7 +9991,7 @@
         <v>8732491</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -9991,7 +10002,7 @@
         <v>8732500</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>182</v>
       </c>
@@ -10002,7 +10013,7 @@
         <v>8732496</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>182</v>
       </c>
@@ -10013,7 +10024,7 @@
         <v>8732477</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>182</v>
       </c>
@@ -10024,7 +10035,7 @@
         <v>8732490</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>182</v>
       </c>
@@ -10035,7 +10046,7 @@
         <v>8732479</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>182</v>
       </c>
@@ -10046,7 +10057,7 @@
         <v>8732489</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -10057,7 +10068,7 @@
         <v>8732515</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>182</v>
       </c>
@@ -10068,7 +10079,7 @@
         <v>8732496</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>182</v>
       </c>
@@ -10079,7 +10090,7 @@
         <v>8732481</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -10090,7 +10101,7 @@
         <v>8732524</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>182</v>
       </c>
@@ -10101,7 +10112,7 @@
         <v>8732479</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>182</v>
       </c>
@@ -10112,7 +10123,7 @@
         <v>8732521</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>182</v>
       </c>
@@ -10123,7 +10134,7 @@
         <v>8732472</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>182</v>
       </c>
@@ -10134,7 +10145,7 @@
         <v>8732475</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>182</v>
       </c>
@@ -10145,7 +10156,7 @@
         <v>8732502</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -10156,7 +10167,7 @@
         <v>8732465</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>182</v>
       </c>
@@ -10167,7 +10178,7 @@
         <v>8732507</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>182</v>
       </c>
@@ -10178,7 +10189,7 @@
         <v>8732485</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>182</v>
       </c>
@@ -10189,7 +10200,7 @@
         <v>8732481</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>182</v>
       </c>
@@ -10200,7 +10211,7 @@
         <v>8732491</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>182</v>
       </c>
@@ -10211,7 +10222,7 @@
         <v>8732496</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -10222,7 +10233,7 @@
         <v>8732485</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -10233,7 +10244,7 @@
         <v>8732480</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>182</v>
       </c>
@@ -10244,7 +10255,7 @@
         <v>8732473</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>182</v>
       </c>
@@ -10255,7 +10266,7 @@
         <v>8732456</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>182</v>
       </c>
@@ -10266,7 +10277,7 @@
         <v>8732473</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>182</v>
       </c>
@@ -10277,7 +10288,7 @@
         <v>8732469</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>182</v>
       </c>
@@ -10288,7 +10299,7 @@
         <v>8732482</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>182</v>
       </c>
@@ -10299,7 +10310,7 @@
         <v>8732444</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -10310,7 +10321,7 @@
         <v>8732472</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>182</v>
       </c>
@@ -10321,7 +10332,7 @@
         <v>8732464</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>182</v>
       </c>
@@ -10332,7 +10343,7 @@
         <v>8732494</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -10343,7 +10354,7 @@
         <v>8732469</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>182</v>
       </c>
@@ -10354,7 +10365,7 @@
         <v>8732476</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -10365,7 +10376,7 @@
         <v>8732467</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>182</v>
       </c>
@@ -10376,7 +10387,7 @@
         <v>8732451</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>182</v>
       </c>
@@ -10387,7 +10398,7 @@
         <v>8732489</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>182</v>
       </c>
@@ -10398,7 +10409,7 @@
         <v>8732490</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -10409,7 +10420,7 @@
         <v>8732474</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>182</v>
       </c>
@@ -10420,7 +10431,7 @@
         <v>8732476</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>182</v>
       </c>
@@ -10431,7 +10442,7 @@
         <v>8732450</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>182</v>
       </c>
@@ -10442,7 +10453,7 @@
         <v>8732466</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>182</v>
       </c>
@@ -10453,7 +10464,7 @@
         <v>8732457</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -10464,7 +10475,7 @@
         <v>8732458</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>182</v>
       </c>
@@ -10475,7 +10486,7 @@
         <v>8732478</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>182</v>
       </c>
@@ -10486,7 +10497,7 @@
         <v>8732469</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -10497,7 +10508,7 @@
         <v>8732486</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -10508,7 +10519,7 @@
         <v>8732428</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>182</v>
       </c>
@@ -10519,7 +10530,7 @@
         <v>8732485</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -10530,7 +10541,7 @@
         <v>8732483</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -10541,7 +10552,7 @@
         <v>8732458</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -10552,7 +10563,7 @@
         <v>8732462</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>182</v>
       </c>
@@ -10563,7 +10574,7 @@
         <v>8732457</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -10574,7 +10585,7 @@
         <v>8732482</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -10585,7 +10596,7 @@
         <v>8732443</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -10596,7 +10607,7 @@
         <v>8732425</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v>8732499</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -10618,7 +10629,7 @@
         <v>8732456</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>182</v>
       </c>
@@ -10629,7 +10640,7 @@
         <v>8732460</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -10640,7 +10651,7 @@
         <v>8732451</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -10651,7 +10662,7 @@
         <v>8732433</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -10662,7 +10673,7 @@
         <v>8732449</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -10673,7 +10684,7 @@
         <v>8732456</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -10684,7 +10695,7 @@
         <v>8732437</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -10695,7 +10706,7 @@
         <v>8732444</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -10706,7 +10717,7 @@
         <v>8732436</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -10717,7 +10728,7 @@
         <v>8732452</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -10728,7 +10739,7 @@
         <v>8732417</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -10739,7 +10750,7 @@
         <v>8732454</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -10750,7 +10761,7 @@
         <v>8732475</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -10761,7 +10772,7 @@
         <v>8732437</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -10772,7 +10783,7 @@
         <v>8732458</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -10783,7 +10794,7 @@
         <v>8732435</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>182</v>
       </c>
@@ -10794,7 +10805,7 @@
         <v>8732438</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>182</v>
       </c>
@@ -10805,7 +10816,7 @@
         <v>8732436</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>182</v>
       </c>
@@ -10816,7 +10827,7 @@
         <v>8732457</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>182</v>
       </c>
@@ -10827,7 +10838,7 @@
         <v>8732424</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -10838,7 +10849,7 @@
         <v>8732422</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -10849,7 +10860,7 @@
         <v>8732419</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -10860,7 +10871,7 @@
         <v>8732430</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>182</v>
       </c>
@@ -10871,7 +10882,7 @@
         <v>8732448</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>182</v>
       </c>
@@ -10882,7 +10893,7 @@
         <v>8732431</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>182</v>
       </c>
@@ -10893,7 +10904,7 @@
         <v>8732457</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -10904,7 +10915,7 @@
         <v>8732417</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>182</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>8732435</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>182</v>
       </c>
@@ -10926,7 +10937,7 @@
         <v>8732417</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>182</v>
       </c>
@@ -10937,7 +10948,7 @@
         <v>8732421</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>182</v>
       </c>
@@ -10948,7 +10959,7 @@
         <v>8732436</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>182</v>
       </c>
@@ -10959,7 +10970,7 @@
         <v>8732441</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>182</v>
       </c>
@@ -10970,7 +10981,7 @@
         <v>8732422</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>182</v>
       </c>
@@ -10981,7 +10992,7 @@
         <v>8732440</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>182</v>
       </c>
@@ -10992,7 +11003,7 @@
         <v>8732427</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>182</v>
       </c>
@@ -11003,7 +11014,7 @@
         <v>8732435</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>182</v>
       </c>
@@ -11014,7 +11025,7 @@
         <v>8732415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>182</v>
       </c>
@@ -11025,7 +11036,7 @@
         <v>8732443</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>182</v>
       </c>
@@ -11036,7 +11047,7 @@
         <v>8732434</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>182</v>
       </c>
@@ -11047,7 +11058,7 @@
         <v>8732414</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>182</v>
       </c>
@@ -11058,7 +11069,7 @@
         <v>8732436</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>182</v>
       </c>
@@ -11069,7 +11080,7 @@
         <v>8732454</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>182</v>
       </c>
@@ -11080,7 +11091,7 @@
         <v>8732439</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -11091,7 +11102,7 @@
         <v>8732438</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>182</v>
       </c>
@@ -11102,7 +11113,7 @@
         <v>8732432</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>182</v>
       </c>
@@ -11113,7 +11124,7 @@
         <v>8732427</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -11124,7 +11135,7 @@
         <v>8732428</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>182</v>
       </c>
@@ -11135,7 +11146,7 @@
         <v>8732420</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>182</v>
       </c>
@@ -11146,7 +11157,7 @@
         <v>8732416</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>182</v>
       </c>
@@ -11157,7 +11168,7 @@
         <v>8732409</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>182</v>
       </c>
@@ -11168,7 +11179,7 @@
         <v>8732398</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>182</v>
       </c>
@@ -11179,7 +11190,7 @@
         <v>8732418</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -11190,7 +11201,7 @@
         <v>8732411</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>182</v>
       </c>
@@ -11201,7 +11212,7 @@
         <v>8732418</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>182</v>
       </c>
@@ -11212,7 +11223,7 @@
         <v>8732429</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>182</v>
       </c>
@@ -11223,7 +11234,7 @@
         <v>8732429</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>182</v>
       </c>
@@ -11234,7 +11245,7 @@
         <v>8732420</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>182</v>
       </c>
@@ -11245,7 +11256,7 @@
         <v>8732439</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>182</v>
       </c>
@@ -11256,7 +11267,7 @@
         <v>8732431</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>182</v>
       </c>
@@ -11267,7 +11278,7 @@
         <v>8732428</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>182</v>
       </c>
@@ -11278,7 +11289,7 @@
         <v>8732399</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>182</v>
       </c>
@@ -11289,7 +11300,7 @@
         <v>8732432</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>182</v>
       </c>
@@ -11300,7 +11311,7 @@
         <v>8732429</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>182</v>
       </c>
@@ -11311,7 +11322,7 @@
         <v>8732414</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>182</v>
       </c>
@@ -11322,7 +11333,7 @@
         <v>8732422</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>182</v>
       </c>
@@ -11333,7 +11344,7 @@
         <v>8732451</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>182</v>
       </c>
@@ -11344,7 +11355,7 @@
         <v>8732420</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>182</v>
       </c>
@@ -11355,7 +11366,7 @@
         <v>8732418</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>182</v>
       </c>
@@ -11366,7 +11377,7 @@
         <v>8732404</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>182</v>
       </c>
@@ -11377,7 +11388,7 @@
         <v>8732402</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>182</v>
       </c>
@@ -11388,7 +11399,7 @@
         <v>8732420</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>182</v>
       </c>
@@ -11399,7 +11410,7 @@
         <v>8732421</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>182</v>
       </c>
@@ -11410,7 +11421,7 @@
         <v>8732396</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>182</v>
       </c>
@@ -11421,7 +11432,7 @@
         <v>8732420</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>182</v>
       </c>
@@ -11432,7 +11443,7 @@
         <v>8732415</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>182</v>
       </c>
@@ -11443,7 +11454,7 @@
         <v>8732386</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>182</v>
       </c>
@@ -11454,7 +11465,7 @@
         <v>8732413</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>182</v>
       </c>
@@ -11465,7 +11476,7 @@
         <v>8732400</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>182</v>
       </c>
@@ -11476,7 +11487,7 @@
         <v>8732439</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>182</v>
       </c>
@@ -11487,7 +11498,7 @@
         <v>8732418</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>182</v>
       </c>
@@ -11498,7 +11509,7 @@
         <v>8732405</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>182</v>
       </c>
@@ -11509,7 +11520,7 @@
         <v>8732383</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>182</v>
       </c>
@@ -11520,7 +11531,7 @@
         <v>8732414</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>182</v>
       </c>
@@ -11531,7 +11542,7 @@
         <v>8732409</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>182</v>
       </c>
@@ -11542,7 +11553,7 @@
         <v>8732416</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>182</v>
       </c>
@@ -11553,7 +11564,7 @@
         <v>8732391</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>182</v>
       </c>
@@ -11564,7 +11575,7 @@
         <v>8732377</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>182</v>
       </c>
@@ -11575,7 +11586,7 @@
         <v>8732403</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>182</v>
       </c>
@@ -11586,7 +11597,7 @@
         <v>8732398</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>182</v>
       </c>
@@ -11597,7 +11608,7 @@
         <v>8732401</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>182</v>
       </c>
@@ -11608,7 +11619,7 @@
         <v>8732399</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>182</v>
       </c>
@@ -11619,7 +11630,7 @@
         <v>8732413</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>182</v>
       </c>
@@ -11630,7 +11641,7 @@
         <v>8732404</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -11641,7 +11652,7 @@
         <v>8732417</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>182</v>
       </c>
@@ -11652,7 +11663,7 @@
         <v>8732428</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>182</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>8732417</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>182</v>
       </c>
@@ -11674,7 +11685,7 @@
         <v>8732420</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>182</v>
       </c>
@@ -11685,7 +11696,7 @@
         <v>8732426</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>182</v>
       </c>
@@ -11696,7 +11707,7 @@
         <v>8732407</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>182</v>
       </c>
@@ -11707,7 +11718,7 @@
         <v>8732415</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>182</v>
       </c>
@@ -11718,7 +11729,7 @@
         <v>8732429</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>182</v>
       </c>
@@ -11729,7 +11740,7 @@
         <v>8732406</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>182</v>
       </c>
@@ -11740,7 +11751,7 @@
         <v>8732383</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>182</v>
       </c>
@@ -11751,7 +11762,7 @@
         <v>8732391</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>182</v>
       </c>
@@ -11762,7 +11773,7 @@
         <v>8732393</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>182</v>
       </c>
@@ -11773,7 +11784,7 @@
         <v>8732379</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>182</v>
       </c>
@@ -11784,7 +11795,7 @@
         <v>8732384</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>182</v>
       </c>
@@ -11795,7 +11806,7 @@
         <v>8732388</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>182</v>
       </c>
@@ -11806,7 +11817,7 @@
         <v>8732393</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>182</v>
       </c>
@@ -11817,7 +11828,7 @@
         <v>8732377</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>182</v>
       </c>
@@ -11828,7 +11839,7 @@
         <v>8732387</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>182</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>8732405</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>182</v>
       </c>
@@ -11850,7 +11861,7 @@
         <v>8732393</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>182</v>
       </c>
@@ -11861,7 +11872,7 @@
         <v>8732406</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>182</v>
       </c>
@@ -11872,7 +11883,7 @@
         <v>8732371</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>182</v>
       </c>
@@ -11883,7 +11894,7 @@
         <v>8732391</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>182</v>
       </c>
@@ -11894,7 +11905,7 @@
         <v>8732421</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>182</v>
       </c>
@@ -11905,7 +11916,7 @@
         <v>8732354</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>182</v>
       </c>
@@ -11916,7 +11927,7 @@
         <v>8732409</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>182</v>
       </c>
@@ -11927,7 +11938,7 @@
         <v>8732381</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>182</v>
       </c>
@@ -11938,7 +11949,7 @@
         <v>8732376</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>182</v>
       </c>
@@ -11949,7 +11960,7 @@
         <v>8732393</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>182</v>
       </c>
@@ -11960,7 +11971,7 @@
         <v>8732400</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>182</v>
       </c>
@@ -11971,7 +11982,7 @@
         <v>8732376</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>182</v>
       </c>
@@ -11982,7 +11993,7 @@
         <v>8732378</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>182</v>
       </c>
@@ -11993,7 +12004,7 @@
         <v>8732376</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>182</v>
       </c>
@@ -12004,7 +12015,7 @@
         <v>8732398</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>182</v>
       </c>
@@ -12015,7 +12026,7 @@
         <v>8732384</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>182</v>
       </c>
@@ -12026,7 +12037,7 @@
         <v>8732381</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>182</v>
       </c>
@@ -12037,7 +12048,7 @@
         <v>8732366</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>182</v>
       </c>
@@ -12048,7 +12059,7 @@
         <v>8732400</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>182</v>
       </c>
@@ -12059,7 +12070,7 @@
         <v>8732369</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>182</v>
       </c>
@@ -12070,7 +12081,7 @@
         <v>8732361</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>182</v>
       </c>
@@ -12081,7 +12092,7 @@
         <v>8732354</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>182</v>
       </c>
@@ -12092,7 +12103,7 @@
         <v>8732387</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>182</v>
       </c>
@@ -12103,7 +12114,7 @@
         <v>8732398</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>182</v>
       </c>
@@ -12114,7 +12125,7 @@
         <v>8732359</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>182</v>
       </c>
@@ -12125,7 +12136,7 @@
         <v>8732340</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>182</v>
       </c>
@@ -12136,7 +12147,7 @@
         <v>8732354</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>182</v>
       </c>
@@ -12147,7 +12158,7 @@
         <v>8732347</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>182</v>
       </c>
@@ -12158,7 +12169,7 @@
         <v>8732375</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>182</v>
       </c>
@@ -12169,7 +12180,7 @@
         <v>8732385</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>182</v>
       </c>
@@ -12180,7 +12191,7 @@
         <v>8732390</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>182</v>
       </c>
@@ -12191,7 +12202,7 @@
         <v>8732353</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>182</v>
       </c>
@@ -12202,7 +12213,7 @@
         <v>8732334</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>182</v>
       </c>
@@ -12213,7 +12224,7 @@
         <v>8732374</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>182</v>
       </c>
@@ -12224,7 +12235,7 @@
         <v>8732355</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>182</v>
       </c>
@@ -12235,7 +12246,7 @@
         <v>8732359</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>182</v>
       </c>
@@ -12246,7 +12257,7 @@
         <v>8732357</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>182</v>
       </c>
@@ -12257,7 +12268,7 @@
         <v>8732361</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>182</v>
       </c>
@@ -12268,7 +12279,7 @@
         <v>8732331</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>182</v>
       </c>
@@ -12279,7 +12290,7 @@
         <v>8732390</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>182</v>
       </c>
@@ -12290,7 +12301,7 @@
         <v>8732346</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>182</v>
       </c>
@@ -12301,7 +12312,7 @@
         <v>8732371</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>182</v>
       </c>
@@ -12312,7 +12323,7 @@
         <v>8732364</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>182</v>
       </c>
@@ -12323,7 +12334,7 @@
         <v>8732374</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>182</v>
       </c>
@@ -12334,7 +12345,7 @@
         <v>8732398</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>182</v>
       </c>
@@ -12345,7 +12356,7 @@
         <v>8732366</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>182</v>
       </c>
@@ -12356,7 +12367,7 @@
         <v>8732379</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>182</v>
       </c>
@@ -12367,7 +12378,7 @@
         <v>8732359</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>182</v>
       </c>
@@ -12378,7 +12389,7 @@
         <v>8732362</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>182</v>
       </c>
@@ -12389,7 +12400,7 @@
         <v>8732361</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>182</v>
       </c>
@@ -12400,7 +12411,7 @@
         <v>8732392</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>182</v>
       </c>
@@ -12411,7 +12422,7 @@
         <v>8732358</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>182</v>
       </c>
@@ -12422,7 +12433,7 @@
         <v>8732351</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>182</v>
       </c>
@@ -12433,7 +12444,7 @@
         <v>8732368</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>182</v>
       </c>
@@ -12444,7 +12455,7 @@
         <v>8732386</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>182</v>
       </c>
@@ -12455,7 +12466,7 @@
         <v>8732363</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>182</v>
       </c>
@@ -12466,7 +12477,7 @@
         <v>8732364</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>182</v>
       </c>
@@ -12477,7 +12488,7 @@
         <v>8732361</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>182</v>
       </c>
@@ -12488,7 +12499,7 @@
         <v>8732368</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>182</v>
       </c>
@@ -12499,7 +12510,7 @@
         <v>8732378</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>182</v>
       </c>
@@ -12510,7 +12521,7 @@
         <v>8732344</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>182</v>
       </c>
@@ -12521,7 +12532,7 @@
         <v>8732355</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>182</v>
       </c>
@@ -12532,7 +12543,7 @@
         <v>8732378</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>182</v>
       </c>
@@ -12543,7 +12554,7 @@
         <v>8732381</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>182</v>
       </c>
@@ -12554,7 +12565,7 @@
         <v>8732351</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>182</v>
       </c>
@@ -12565,7 +12576,7 @@
         <v>8732345</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>182</v>
       </c>
@@ -12576,7 +12587,7 @@
         <v>8732361</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>182</v>
       </c>
@@ -12587,7 +12598,7 @@
         <v>8732355</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>182</v>
       </c>
@@ -12598,7 +12609,7 @@
         <v>8732368</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>182</v>
       </c>
@@ -12609,7 +12620,7 @@
         <v>8732330</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>182</v>
       </c>
@@ -12620,7 +12631,7 @@
         <v>8732342</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>182</v>
       </c>
@@ -12631,7 +12642,7 @@
         <v>8732352</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>182</v>
       </c>
@@ -12642,7 +12653,7 @@
         <v>8732362</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>182</v>
       </c>
@@ -12653,7 +12664,7 @@
         <v>8732371</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>182</v>
       </c>
@@ -12664,7 +12675,7 @@
         <v>8732342</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>182</v>
       </c>
@@ -12675,7 +12686,7 @@
         <v>8732348</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>182</v>
       </c>
@@ -12686,7 +12697,7 @@
         <v>8732363</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>182</v>
       </c>
@@ -12697,7 +12708,7 @@
         <v>8732355</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>182</v>
       </c>
@@ -12708,7 +12719,7 @@
         <v>8732372</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>182</v>
       </c>
@@ -12719,7 +12730,7 @@
         <v>8732336</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>182</v>
       </c>
@@ -12730,7 +12741,7 @@
         <v>8732389</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>182</v>
       </c>
@@ -12741,7 +12752,7 @@
         <v>8732357</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>182</v>
       </c>
@@ -12752,7 +12763,7 @@
         <v>8732355</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>182</v>
       </c>
@@ -12763,7 +12774,7 @@
         <v>8732350</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>182</v>
       </c>
@@ -12774,7 +12785,7 @@
         <v>8732359</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>182</v>
       </c>
@@ -12785,7 +12796,7 @@
         <v>8732319</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>182</v>
       </c>
@@ -12796,7 +12807,7 @@
         <v>8732355</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>182</v>
       </c>
@@ -12807,7 +12818,7 @@
         <v>8732345</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>182</v>
       </c>
@@ -12818,7 +12829,7 @@
         <v>8732328</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>182</v>
       </c>
@@ -12829,7 +12840,7 @@
         <v>8732325</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>182</v>
       </c>
@@ -12840,7 +12851,7 @@
         <v>8732353</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>182</v>
       </c>
@@ -12851,7 +12862,7 @@
         <v>8732331</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>182</v>
       </c>
@@ -12862,7 +12873,7 @@
         <v>8732324</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>182</v>
       </c>
@@ -12873,7 +12884,7 @@
         <v>8732328</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>182</v>
       </c>
@@ -12884,7 +12895,7 @@
         <v>8732352</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>182</v>
       </c>
@@ -12895,7 +12906,7 @@
         <v>8732324</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>182</v>
       </c>
@@ -12906,7 +12917,7 @@
         <v>8732317</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>182</v>
       </c>
@@ -12917,7 +12928,7 @@
         <v>8732323</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>182</v>
       </c>
@@ -12928,7 +12939,7 @@
         <v>8732373</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>182</v>
       </c>
@@ -12939,7 +12950,7 @@
         <v>8732336</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>182</v>
       </c>
@@ -12950,7 +12961,7 @@
         <v>8732334</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>182</v>
       </c>
@@ -12961,7 +12972,7 @@
         <v>8732319</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>182</v>
       </c>
@@ -12972,7 +12983,7 @@
         <v>8732359</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>182</v>
       </c>
@@ -12983,7 +12994,7 @@
         <v>8732338</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>182</v>
       </c>
@@ -12994,7 +13005,7 @@
         <v>8732362</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>182</v>
       </c>
@@ -13005,7 +13016,7 @@
         <v>8732320</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>182</v>
       </c>
@@ -13016,7 +13027,7 @@
         <v>8732331</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>182</v>
       </c>
@@ -13027,7 +13038,7 @@
         <v>8732313</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>182</v>
       </c>
@@ -13038,7 +13049,7 @@
         <v>8732289</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>182</v>
       </c>
@@ -13049,7 +13060,7 @@
         <v>8732318</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>182</v>
       </c>
@@ -13060,7 +13071,7 @@
         <v>8732354</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>182</v>
       </c>
@@ -13071,7 +13082,7 @@
         <v>8732329</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>182</v>
       </c>
@@ -13082,7 +13093,7 @@
         <v>8732335</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>182</v>
       </c>
@@ -13093,7 +13104,7 @@
         <v>8732349</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>182</v>
       </c>
@@ -13104,7 +13115,7 @@
         <v>8732367</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>182</v>
       </c>
@@ -13115,7 +13126,7 @@
         <v>8732343</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>182</v>
       </c>
@@ -13126,7 +13137,7 @@
         <v>8732354</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>182</v>
       </c>
